--- a/PhD/PhD Projects/Waterhemp/Metabolism Inhibitors/GC/Mesotrione/2023/Mesotrione_Absolute ED_Multiple Comparisons/Data Sheet_Meso_GC.xlsx
+++ b/PhD/PhD Projects/Waterhemp/Metabolism Inhibitors/GC/Mesotrione/2023/Mesotrione_Absolute ED_Multiple Comparisons/Data Sheet_Meso_GC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/deandradefal_wisc_edu/Documents/Documents/GitHub/FFaleco/PhD/PhD Projects/Waterhemp/Metabolism Inhibitors/GC/Mesotrione/2023/Mesotrione_Absolute ED - Copy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/deandradefal_wisc_edu/Documents/Documents/GitHub/FFaleco/PhD/PhD Projects/Waterhemp/Metabolism Inhibitors/GC/Mesotrione/2023/Mesotrione_Absolute ED_Multiple Comparisons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="701" documentId="13_ncr:1_{DCBFFDB1-6533-4D82-AAE7-984FEA5D15ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{570E24CD-338C-4A66-851D-5DEF856CDF22}"/>
+  <xr:revisionPtr revIDLastSave="705" documentId="13_ncr:1_{DCBFFDB1-6533-4D82-AAE7-984FEA5D15ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05E9B2F0-A3FE-4873-85C6-2FFE079D1BDC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8BE33F48-9045-46B1-A80E-2B5333758AEB}"/>
   </bookViews>
@@ -121,9 +121,6 @@
     <t>rate</t>
   </si>
   <si>
-    <t>elevated</t>
-  </si>
-  <si>
     <t>ambient</t>
   </si>
   <si>
@@ -131,6 +128,9 @@
   </si>
   <si>
     <t>treat</t>
+  </si>
+  <si>
+    <t>increased</t>
   </si>
 </sst>
 </file>
@@ -565,7 +565,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -586,7 +586,7 @@
         <v>7</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -607,7 +607,7 @@
       </c>
       <c r="F2" s="3" t="str">
         <f>_xlfn.CONCAT(D2, "+", E2, "+", I2)</f>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>9</v>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J2" s="3">
         <v>2</v>
@@ -649,7 +649,7 @@
       </c>
       <c r="F3" s="3" t="str">
         <f t="shared" ref="F3:F66" si="0">_xlfn.CONCAT(D3, "+", E3, "+", I3)</f>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>9</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J3" s="3">
         <v>3</v>
@@ -691,7 +691,7 @@
       </c>
       <c r="F4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>9</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J4" s="3">
         <v>4</v>
@@ -733,7 +733,7 @@
       </c>
       <c r="F5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>19</v>
@@ -742,7 +742,7 @@
         <v>1.64</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J5" s="3">
         <v>1</v>
@@ -775,7 +775,7 @@
       </c>
       <c r="F6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>19</v>
@@ -784,7 +784,7 @@
         <v>1.64</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J6" s="3">
         <v>2</v>
@@ -817,7 +817,7 @@
       </c>
       <c r="F7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>19</v>
@@ -826,7 +826,7 @@
         <v>1.64</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J7" s="3">
         <v>3</v>
@@ -859,7 +859,7 @@
       </c>
       <c r="F8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>19</v>
@@ -868,7 +868,7 @@
         <v>1.64</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J8" s="3">
         <v>4</v>
@@ -901,7 +901,7 @@
       </c>
       <c r="F9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>20</v>
@@ -910,7 +910,7 @@
         <v>3.28</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J9" s="3">
         <v>1</v>
@@ -943,7 +943,7 @@
       </c>
       <c r="F10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>20</v>
@@ -952,7 +952,7 @@
         <v>3.28</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J10" s="3">
         <v>2</v>
@@ -985,7 +985,7 @@
       </c>
       <c r="F11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>20</v>
@@ -994,7 +994,7 @@
         <v>3.28</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J11" s="3">
         <v>3</v>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="F12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>20</v>
@@ -1036,7 +1036,7 @@
         <v>3.28</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J12" s="3">
         <v>4</v>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="F13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>21</v>
@@ -1078,7 +1078,7 @@
         <v>6.57</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J13" s="3">
         <v>1</v>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="F14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>21</v>
@@ -1120,7 +1120,7 @@
         <v>6.57</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J14" s="3">
         <v>2</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="F15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>21</v>
@@ -1162,7 +1162,7 @@
         <v>6.57</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J15" s="3">
         <v>3</v>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="F16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>21</v>
@@ -1204,7 +1204,7 @@
         <v>6.57</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J16" s="3">
         <v>4</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="F17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>10</v>
@@ -1246,7 +1246,7 @@
         <v>13.14</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J17" s="3">
         <v>1</v>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="F18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>10</v>
@@ -1288,7 +1288,7 @@
         <v>13.14</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J18" s="3">
         <v>2</v>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="F19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>10</v>
@@ -1330,7 +1330,7 @@
         <v>13.14</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J19" s="3">
         <v>3</v>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="F20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>10</v>
@@ -1372,7 +1372,7 @@
         <v>13.14</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J20" s="3">
         <v>4</v>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="F21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>11</v>
@@ -1414,7 +1414,7 @@
         <v>26.27</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J21" s="3">
         <v>1</v>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="F22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>11</v>
@@ -1456,7 +1456,7 @@
         <v>26.27</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J22" s="3">
         <v>2</v>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="F23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>11</v>
@@ -1498,7 +1498,7 @@
         <v>26.27</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J23" s="3">
         <v>3</v>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="F24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>11</v>
@@ -1540,7 +1540,7 @@
         <v>26.27</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J24" s="3">
         <v>4</v>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="F25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>12</v>
@@ -1582,7 +1582,7 @@
         <v>52.55</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J25" s="3">
         <v>1</v>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="F26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>12</v>
@@ -1624,7 +1624,7 @@
         <v>52.55</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J26" s="3">
         <v>2</v>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="F27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>12</v>
@@ -1666,7 +1666,7 @@
         <v>52.55</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J27" s="3">
         <v>3</v>
@@ -1699,7 +1699,7 @@
       </c>
       <c r="F28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>12</v>
@@ -1708,7 +1708,7 @@
         <v>52.55</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J28" s="3">
         <v>4</v>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="F29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>13</v>
@@ -1750,7 +1750,7 @@
         <v>105.09</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J29" s="3">
         <v>1</v>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="F30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>13</v>
@@ -1792,7 +1792,7 @@
         <v>105.09</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J30" s="3">
         <v>2</v>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="F31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>13</v>
@@ -1834,7 +1834,7 @@
         <v>105.09</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J31" s="3">
         <v>3</v>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="F32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>13</v>
@@ -1876,7 +1876,7 @@
         <v>105.09</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J32" s="3">
         <v>4</v>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="F33" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>14</v>
@@ -1918,7 +1918,7 @@
         <v>210.19</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J33" s="3">
         <v>1</v>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="F34" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>14</v>
@@ -1960,7 +1960,7 @@
         <v>210.19</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J34" s="3">
         <v>2</v>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="F35" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>14</v>
@@ -2002,7 +2002,7 @@
         <v>210.19</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J35" s="3">
         <v>3</v>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="F36" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>14</v>
@@ -2044,7 +2044,7 @@
         <v>210.19</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J36" s="3">
         <v>4</v>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="F37" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>15</v>
@@ -2086,7 +2086,7 @@
         <v>420.37</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J37" s="3">
         <v>1</v>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="F38" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>15</v>
@@ -2128,7 +2128,7 @@
         <v>420.37</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J38" s="3">
         <v>2</v>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="F39" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>15</v>
@@ -2170,7 +2170,7 @@
         <v>420.37</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J39" s="3">
         <v>3</v>
@@ -2203,7 +2203,7 @@
       </c>
       <c r="F40" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>15</v>
@@ -2212,7 +2212,7 @@
         <v>420.37</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J40" s="3">
         <v>4</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J41" s="3">
         <v>1</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J42" s="3">
         <v>2</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J43" s="3">
         <v>3</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J44" s="3">
         <v>4</v>
@@ -2422,7 +2422,7 @@
         <v>1.64</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J45" s="3">
         <v>1</v>
@@ -2464,7 +2464,7 @@
         <v>1.64</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J46" s="3">
         <v>2</v>
@@ -2506,7 +2506,7 @@
         <v>1.64</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J47" s="3">
         <v>3</v>
@@ -2548,7 +2548,7 @@
         <v>1.64</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J48" s="3">
         <v>4</v>
@@ -2590,7 +2590,7 @@
         <v>3.28</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J49" s="3">
         <v>1</v>
@@ -2632,7 +2632,7 @@
         <v>3.28</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J50" s="3">
         <v>2</v>
@@ -2674,7 +2674,7 @@
         <v>3.28</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J51" s="3">
         <v>3</v>
@@ -2716,7 +2716,7 @@
         <v>3.28</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J52" s="3">
         <v>4</v>
@@ -2758,7 +2758,7 @@
         <v>6.57</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J53" s="3">
         <v>1</v>
@@ -2800,7 +2800,7 @@
         <v>6.57</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J54" s="3">
         <v>2</v>
@@ -2842,7 +2842,7 @@
         <v>6.57</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J55" s="3">
         <v>3</v>
@@ -2884,7 +2884,7 @@
         <v>6.57</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J56" s="3">
         <v>4</v>
@@ -2926,7 +2926,7 @@
         <v>13.14</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J57" s="3">
         <v>1</v>
@@ -2968,7 +2968,7 @@
         <v>13.14</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J58" s="3">
         <v>2</v>
@@ -3010,7 +3010,7 @@
         <v>13.14</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J59" s="3">
         <v>3</v>
@@ -3052,7 +3052,7 @@
         <v>13.14</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J60" s="3">
         <v>4</v>
@@ -3094,7 +3094,7 @@
         <v>26.27</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J61" s="3">
         <v>1</v>
@@ -3136,7 +3136,7 @@
         <v>26.27</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J62" s="3">
         <v>2</v>
@@ -3178,7 +3178,7 @@
         <v>26.27</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J63" s="3">
         <v>3</v>
@@ -3220,7 +3220,7 @@
         <v>26.27</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J64" s="3">
         <v>4</v>
@@ -3262,7 +3262,7 @@
         <v>52.55</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J65" s="3">
         <v>1</v>
@@ -3304,7 +3304,7 @@
         <v>52.55</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J66" s="3">
         <v>2</v>
@@ -3346,7 +3346,7 @@
         <v>52.55</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J67" s="3">
         <v>3</v>
@@ -3388,7 +3388,7 @@
         <v>52.55</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J68" s="3">
         <v>4</v>
@@ -3430,7 +3430,7 @@
         <v>105.09</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J69" s="3">
         <v>1</v>
@@ -3472,7 +3472,7 @@
         <v>105.09</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J70" s="3">
         <v>2</v>
@@ -3514,7 +3514,7 @@
         <v>105.09</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J71" s="3">
         <v>3</v>
@@ -3556,7 +3556,7 @@
         <v>105.09</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J72" s="3">
         <v>4</v>
@@ -3598,7 +3598,7 @@
         <v>210.19</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J73" s="3">
         <v>1</v>
@@ -3640,7 +3640,7 @@
         <v>210.19</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J74" s="3">
         <v>2</v>
@@ -3682,7 +3682,7 @@
         <v>210.19</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J75" s="3">
         <v>3</v>
@@ -3724,7 +3724,7 @@
         <v>210.19</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J76" s="3">
         <v>4</v>
@@ -3766,7 +3766,7 @@
         <v>420.37</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J77" s="3">
         <v>1</v>
@@ -3808,7 +3808,7 @@
         <v>420.37</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J78" s="3">
         <v>2</v>
@@ -3850,7 +3850,7 @@
         <v>420.37</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J79" s="3">
         <v>3</v>
@@ -3892,7 +3892,7 @@
         <v>420.37</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J80" s="3">
         <v>4</v>
@@ -3925,7 +3925,7 @@
       </c>
       <c r="F81" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>9</v>
@@ -3934,7 +3934,7 @@
         <v>0</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J81" s="3">
         <v>1</v>
@@ -3967,7 +3967,7 @@
       </c>
       <c r="F82" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>9</v>
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J82" s="3">
         <v>2</v>
@@ -4009,7 +4009,7 @@
       </c>
       <c r="F83" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>9</v>
@@ -4018,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J83" s="3">
         <v>3</v>
@@ -4051,7 +4051,7 @@
       </c>
       <c r="F84" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>19</v>
@@ -4060,7 +4060,7 @@
         <v>1.64</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J84" s="3">
         <v>1</v>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="F85" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>19</v>
@@ -4102,7 +4102,7 @@
         <v>1.64</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J85" s="3">
         <v>2</v>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="F86" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>19</v>
@@ -4144,7 +4144,7 @@
         <v>1.64</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J86" s="3">
         <v>3</v>
@@ -4177,7 +4177,7 @@
       </c>
       <c r="F87" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>20</v>
@@ -4186,7 +4186,7 @@
         <v>3.28</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J87" s="3">
         <v>1</v>
@@ -4219,7 +4219,7 @@
       </c>
       <c r="F88" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>20</v>
@@ -4228,7 +4228,7 @@
         <v>3.28</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J88" s="3">
         <v>2</v>
@@ -4261,7 +4261,7 @@
       </c>
       <c r="F89" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>20</v>
@@ -4270,7 +4270,7 @@
         <v>3.28</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J89" s="3">
         <v>3</v>
@@ -4303,7 +4303,7 @@
       </c>
       <c r="F90" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>21</v>
@@ -4312,7 +4312,7 @@
         <v>6.57</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J90" s="3">
         <v>1</v>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="F91" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>21</v>
@@ -4354,7 +4354,7 @@
         <v>6.57</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J91" s="3">
         <v>2</v>
@@ -4387,7 +4387,7 @@
       </c>
       <c r="F92" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>21</v>
@@ -4396,7 +4396,7 @@
         <v>6.57</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J92" s="3">
         <v>3</v>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="F93" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>10</v>
@@ -4438,7 +4438,7 @@
         <v>13.14</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J93" s="3">
         <v>1</v>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="F94" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>10</v>
@@ -4480,7 +4480,7 @@
         <v>13.14</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J94" s="3">
         <v>2</v>
@@ -4513,7 +4513,7 @@
       </c>
       <c r="F95" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>10</v>
@@ -4522,7 +4522,7 @@
         <v>13.14</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J95" s="3">
         <v>3</v>
@@ -4555,7 +4555,7 @@
       </c>
       <c r="F96" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>11</v>
@@ -4564,7 +4564,7 @@
         <v>26.27</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J96" s="3">
         <v>1</v>
@@ -4597,7 +4597,7 @@
       </c>
       <c r="F97" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>11</v>
@@ -4606,7 +4606,7 @@
         <v>26.27</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J97" s="3">
         <v>2</v>
@@ -4639,7 +4639,7 @@
       </c>
       <c r="F98" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>11</v>
@@ -4648,7 +4648,7 @@
         <v>26.27</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J98" s="3">
         <v>3</v>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="F99" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>12</v>
@@ -4690,7 +4690,7 @@
         <v>52.55</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J99" s="3">
         <v>1</v>
@@ -4723,7 +4723,7 @@
       </c>
       <c r="F100" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>12</v>
@@ -4732,7 +4732,7 @@
         <v>52.55</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J100" s="3">
         <v>2</v>
@@ -4765,7 +4765,7 @@
       </c>
       <c r="F101" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>12</v>
@@ -4774,7 +4774,7 @@
         <v>52.55</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J101" s="3">
         <v>3</v>
@@ -4807,7 +4807,7 @@
       </c>
       <c r="F102" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>13</v>
@@ -4816,7 +4816,7 @@
         <v>105.09</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J102" s="3">
         <v>1</v>
@@ -4849,7 +4849,7 @@
       </c>
       <c r="F103" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G103" s="3" t="s">
         <v>13</v>
@@ -4858,7 +4858,7 @@
         <v>105.09</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J103" s="3">
         <v>2</v>
@@ -4891,7 +4891,7 @@
       </c>
       <c r="F104" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>13</v>
@@ -4900,7 +4900,7 @@
         <v>105.09</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J104" s="3">
         <v>3</v>
@@ -4933,7 +4933,7 @@
       </c>
       <c r="F105" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>14</v>
@@ -4942,7 +4942,7 @@
         <v>210.19</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J105" s="3">
         <v>1</v>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="F106" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>14</v>
@@ -4984,7 +4984,7 @@
         <v>210.19</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J106" s="3">
         <v>2</v>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="F107" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G107" s="3" t="s">
         <v>14</v>
@@ -5026,7 +5026,7 @@
         <v>210.19</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J107" s="3">
         <v>3</v>
@@ -5059,7 +5059,7 @@
       </c>
       <c r="F108" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G108" s="3" t="s">
         <v>15</v>
@@ -5068,7 +5068,7 @@
         <v>420.37</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J108" s="3">
         <v>1</v>
@@ -5101,7 +5101,7 @@
       </c>
       <c r="F109" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G109" s="3" t="s">
         <v>15</v>
@@ -5110,7 +5110,7 @@
         <v>420.37</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J109" s="3">
         <v>2</v>
@@ -5143,7 +5143,7 @@
       </c>
       <c r="F110" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G110" s="3" t="s">
         <v>15</v>
@@ -5152,7 +5152,7 @@
         <v>420.37</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J110" s="3">
         <v>3</v>
@@ -5185,7 +5185,7 @@
       </c>
       <c r="F111" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G111" s="3" t="s">
         <v>9</v>
@@ -5194,7 +5194,7 @@
         <v>0</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J111" s="3">
         <v>1</v>
@@ -5227,7 +5227,7 @@
       </c>
       <c r="F112" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G112" s="3" t="s">
         <v>9</v>
@@ -5236,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J112" s="3">
         <v>2</v>
@@ -5269,7 +5269,7 @@
       </c>
       <c r="F113" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>9</v>
@@ -5278,7 +5278,7 @@
         <v>0</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J113" s="3">
         <v>3</v>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="F114" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G114" s="3" t="s">
         <v>19</v>
@@ -5320,7 +5320,7 @@
         <v>1.64</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J114" s="3">
         <v>1</v>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="F115" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>19</v>
@@ -5362,7 +5362,7 @@
         <v>1.64</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J115" s="3">
         <v>2</v>
@@ -5395,7 +5395,7 @@
       </c>
       <c r="F116" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G116" s="3" t="s">
         <v>19</v>
@@ -5404,7 +5404,7 @@
         <v>1.64</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J116" s="3">
         <v>3</v>
@@ -5437,7 +5437,7 @@
       </c>
       <c r="F117" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>20</v>
@@ -5446,7 +5446,7 @@
         <v>3.28</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J117" s="3">
         <v>1</v>
@@ -5479,7 +5479,7 @@
       </c>
       <c r="F118" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G118" s="3" t="s">
         <v>20</v>
@@ -5488,7 +5488,7 @@
         <v>3.28</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J118" s="3">
         <v>2</v>
@@ -5521,7 +5521,7 @@
       </c>
       <c r="F119" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G119" s="3" t="s">
         <v>20</v>
@@ -5530,7 +5530,7 @@
         <v>3.28</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J119" s="3">
         <v>3</v>
@@ -5563,7 +5563,7 @@
       </c>
       <c r="F120" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G120" s="3" t="s">
         <v>21</v>
@@ -5572,7 +5572,7 @@
         <v>6.57</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J120" s="3">
         <v>1</v>
@@ -5605,7 +5605,7 @@
       </c>
       <c r="F121" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G121" s="3" t="s">
         <v>21</v>
@@ -5614,7 +5614,7 @@
         <v>6.57</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J121" s="3">
         <v>2</v>
@@ -5647,7 +5647,7 @@
       </c>
       <c r="F122" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G122" s="3" t="s">
         <v>21</v>
@@ -5656,7 +5656,7 @@
         <v>6.57</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J122" s="3">
         <v>3</v>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="F123" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G123" s="3" t="s">
         <v>10</v>
@@ -5698,7 +5698,7 @@
         <v>13.14</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J123" s="3">
         <v>2</v>
@@ -5731,7 +5731,7 @@
       </c>
       <c r="F124" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G124" s="3" t="s">
         <v>10</v>
@@ -5740,7 +5740,7 @@
         <v>13.14</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J124" s="3">
         <v>3</v>
@@ -5773,7 +5773,7 @@
       </c>
       <c r="F125" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G125" s="3" t="s">
         <v>11</v>
@@ -5782,7 +5782,7 @@
         <v>26.27</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J125" s="3">
         <v>1</v>
@@ -5815,7 +5815,7 @@
       </c>
       <c r="F126" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G126" s="3" t="s">
         <v>11</v>
@@ -5824,7 +5824,7 @@
         <v>26.27</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J126" s="3">
         <v>2</v>
@@ -5857,7 +5857,7 @@
       </c>
       <c r="F127" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G127" s="3" t="s">
         <v>11</v>
@@ -5866,7 +5866,7 @@
         <v>26.27</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J127" s="3">
         <v>3</v>
@@ -5899,7 +5899,7 @@
       </c>
       <c r="F128" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G128" s="3" t="s">
         <v>12</v>
@@ -5908,7 +5908,7 @@
         <v>52.55</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J128" s="3">
         <v>1</v>
@@ -5941,7 +5941,7 @@
       </c>
       <c r="F129" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G129" s="3" t="s">
         <v>12</v>
@@ -5950,7 +5950,7 @@
         <v>52.55</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J129" s="3">
         <v>2</v>
@@ -5983,7 +5983,7 @@
       </c>
       <c r="F130" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G130" s="3" t="s">
         <v>12</v>
@@ -5992,7 +5992,7 @@
         <v>52.55</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J130" s="3">
         <v>3</v>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="F131" s="3" t="str">
         <f t="shared" ref="F131:F194" si="2">_xlfn.CONCAT(D131, "+", E131, "+", I131)</f>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G131" s="3" t="s">
         <v>13</v>
@@ -6034,7 +6034,7 @@
         <v>105.09</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J131" s="3">
         <v>1</v>
@@ -6067,7 +6067,7 @@
       </c>
       <c r="F132" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G132" s="3" t="s">
         <v>13</v>
@@ -6076,7 +6076,7 @@
         <v>105.09</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J132" s="3">
         <v>2</v>
@@ -6109,7 +6109,7 @@
       </c>
       <c r="F133" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G133" s="3" t="s">
         <v>13</v>
@@ -6118,7 +6118,7 @@
         <v>105.09</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J133" s="3">
         <v>3</v>
@@ -6151,7 +6151,7 @@
       </c>
       <c r="F134" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G134" s="3" t="s">
         <v>14</v>
@@ -6160,7 +6160,7 @@
         <v>210.19</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J134" s="3">
         <v>1</v>
@@ -6193,7 +6193,7 @@
       </c>
       <c r="F135" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G135" s="3" t="s">
         <v>14</v>
@@ -6202,7 +6202,7 @@
         <v>210.19</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J135" s="3">
         <v>2</v>
@@ -6235,7 +6235,7 @@
       </c>
       <c r="F136" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G136" s="3" t="s">
         <v>14</v>
@@ -6244,7 +6244,7 @@
         <v>210.19</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J136" s="3">
         <v>3</v>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="F137" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G137" s="3" t="s">
         <v>15</v>
@@ -6286,7 +6286,7 @@
         <v>420.37</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J137" s="3">
         <v>1</v>
@@ -6319,7 +6319,7 @@
       </c>
       <c r="F138" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G138" s="3" t="s">
         <v>15</v>
@@ -6328,7 +6328,7 @@
         <v>420.37</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J138" s="3">
         <v>2</v>
@@ -6361,7 +6361,7 @@
       </c>
       <c r="F139" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G139" s="3" t="s">
         <v>15</v>
@@ -6370,7 +6370,7 @@
         <v>420.37</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J139" s="3">
         <v>3</v>
@@ -6403,7 +6403,7 @@
       </c>
       <c r="F140" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G140" s="3" t="s">
         <v>9</v>
@@ -6412,7 +6412,7 @@
         <v>0</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J140" s="3">
         <v>1</v>
@@ -6445,7 +6445,7 @@
       </c>
       <c r="F141" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G141" s="3" t="s">
         <v>9</v>
@@ -6454,7 +6454,7 @@
         <v>0</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J141" s="3">
         <v>2</v>
@@ -6481,7 +6481,7 @@
       </c>
       <c r="F142" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G142" s="3" t="s">
         <v>9</v>
@@ -6490,7 +6490,7 @@
         <v>0</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J142" s="3">
         <v>3</v>
@@ -6523,7 +6523,7 @@
       </c>
       <c r="F143" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G143" s="3" t="s">
         <v>19</v>
@@ -6532,7 +6532,7 @@
         <v>1.64</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J143" s="3">
         <v>1</v>
@@ -6565,7 +6565,7 @@
       </c>
       <c r="F144" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G144" s="3" t="s">
         <v>19</v>
@@ -6574,7 +6574,7 @@
         <v>1.64</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J144" s="3">
         <v>2</v>
@@ -6607,7 +6607,7 @@
       </c>
       <c r="F145" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G145" s="3" t="s">
         <v>19</v>
@@ -6616,7 +6616,7 @@
         <v>1.64</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J145" s="3">
         <v>3</v>
@@ -6649,7 +6649,7 @@
       </c>
       <c r="F146" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G146" s="3" t="s">
         <v>20</v>
@@ -6658,7 +6658,7 @@
         <v>3.28</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J146" s="3">
         <v>1</v>
@@ -6691,7 +6691,7 @@
       </c>
       <c r="F147" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G147" s="3" t="s">
         <v>20</v>
@@ -6700,7 +6700,7 @@
         <v>3.28</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J147" s="3">
         <v>2</v>
@@ -6733,7 +6733,7 @@
       </c>
       <c r="F148" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G148" s="3" t="s">
         <v>20</v>
@@ -6742,7 +6742,7 @@
         <v>3.28</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J148" s="3">
         <v>3</v>
@@ -6775,7 +6775,7 @@
       </c>
       <c r="F149" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G149" s="3" t="s">
         <v>21</v>
@@ -6784,7 +6784,7 @@
         <v>6.57</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J149" s="3">
         <v>1</v>
@@ -6817,7 +6817,7 @@
       </c>
       <c r="F150" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G150" s="3" t="s">
         <v>21</v>
@@ -6826,7 +6826,7 @@
         <v>6.57</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J150" s="3">
         <v>2</v>
@@ -6859,7 +6859,7 @@
       </c>
       <c r="F151" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G151" s="3" t="s">
         <v>21</v>
@@ -6868,7 +6868,7 @@
         <v>6.57</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J151" s="3">
         <v>3</v>
@@ -6901,7 +6901,7 @@
       </c>
       <c r="F152" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G152" s="3" t="s">
         <v>10</v>
@@ -6910,7 +6910,7 @@
         <v>13.14</v>
       </c>
       <c r="I152" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J152" s="3">
         <v>1</v>
@@ -6943,7 +6943,7 @@
       </c>
       <c r="F153" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G153" s="3" t="s">
         <v>10</v>
@@ -6952,7 +6952,7 @@
         <v>13.14</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J153" s="3">
         <v>2</v>
@@ -6985,7 +6985,7 @@
       </c>
       <c r="F154" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G154" s="3" t="s">
         <v>10</v>
@@ -6994,7 +6994,7 @@
         <v>13.14</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J154" s="3">
         <v>3</v>
@@ -7027,7 +7027,7 @@
       </c>
       <c r="F155" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G155" s="3" t="s">
         <v>11</v>
@@ -7036,7 +7036,7 @@
         <v>26.27</v>
       </c>
       <c r="I155" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J155" s="3">
         <v>1</v>
@@ -7069,7 +7069,7 @@
       </c>
       <c r="F156" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G156" s="3" t="s">
         <v>11</v>
@@ -7078,7 +7078,7 @@
         <v>26.27</v>
       </c>
       <c r="I156" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J156" s="3">
         <v>2</v>
@@ -7111,7 +7111,7 @@
       </c>
       <c r="F157" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G157" s="3" t="s">
         <v>11</v>
@@ -7120,7 +7120,7 @@
         <v>26.27</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J157" s="3">
         <v>3</v>
@@ -7153,7 +7153,7 @@
       </c>
       <c r="F158" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G158" s="3" t="s">
         <v>12</v>
@@ -7162,7 +7162,7 @@
         <v>52.55</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J158" s="3">
         <v>1</v>
@@ -7195,7 +7195,7 @@
       </c>
       <c r="F159" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G159" s="3" t="s">
         <v>12</v>
@@ -7204,7 +7204,7 @@
         <v>52.55</v>
       </c>
       <c r="I159" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J159" s="3">
         <v>2</v>
@@ -7237,7 +7237,7 @@
       </c>
       <c r="F160" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G160" s="3" t="s">
         <v>12</v>
@@ -7246,7 +7246,7 @@
         <v>52.55</v>
       </c>
       <c r="I160" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J160" s="3">
         <v>3</v>
@@ -7279,7 +7279,7 @@
       </c>
       <c r="F161" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G161" s="3" t="s">
         <v>13</v>
@@ -7288,7 +7288,7 @@
         <v>105.09</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J161" s="3">
         <v>1</v>
@@ -7321,7 +7321,7 @@
       </c>
       <c r="F162" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G162" s="3" t="s">
         <v>13</v>
@@ -7330,7 +7330,7 @@
         <v>105.09</v>
       </c>
       <c r="I162" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J162" s="3">
         <v>2</v>
@@ -7363,7 +7363,7 @@
       </c>
       <c r="F163" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G163" s="3" t="s">
         <v>13</v>
@@ -7372,7 +7372,7 @@
         <v>105.09</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J163" s="3">
         <v>3</v>
@@ -7405,7 +7405,7 @@
       </c>
       <c r="F164" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G164" s="3" t="s">
         <v>14</v>
@@ -7414,7 +7414,7 @@
         <v>210.19</v>
       </c>
       <c r="I164" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J164" s="3">
         <v>1</v>
@@ -7447,7 +7447,7 @@
       </c>
       <c r="F165" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G165" s="3" t="s">
         <v>14</v>
@@ -7456,7 +7456,7 @@
         <v>210.19</v>
       </c>
       <c r="I165" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J165" s="3">
         <v>2</v>
@@ -7489,7 +7489,7 @@
       </c>
       <c r="F166" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G166" s="3" t="s">
         <v>14</v>
@@ -7498,7 +7498,7 @@
         <v>210.19</v>
       </c>
       <c r="I166" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J166" s="3">
         <v>3</v>
@@ -7531,7 +7531,7 @@
       </c>
       <c r="F167" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G167" s="3" t="s">
         <v>15</v>
@@ -7540,7 +7540,7 @@
         <v>420.37</v>
       </c>
       <c r="I167" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J167" s="3">
         <v>1</v>
@@ -7573,7 +7573,7 @@
       </c>
       <c r="F168" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G168" s="3" t="s">
         <v>15</v>
@@ -7582,7 +7582,7 @@
         <v>420.37</v>
       </c>
       <c r="I168" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J168" s="3">
         <v>2</v>
@@ -7615,7 +7615,7 @@
       </c>
       <c r="F169" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G169" s="3" t="s">
         <v>15</v>
@@ -7624,7 +7624,7 @@
         <v>420.37</v>
       </c>
       <c r="I169" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J169" s="3">
         <v>3</v>
@@ -7666,7 +7666,7 @@
         <v>0</v>
       </c>
       <c r="I170" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J170" s="3">
         <v>1</v>
@@ -7708,7 +7708,7 @@
         <v>0</v>
       </c>
       <c r="I171" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J171" s="3">
         <v>2</v>
@@ -7750,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="I172" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J172" s="3">
         <v>3</v>
@@ -7786,7 +7786,7 @@
         <v>1.64</v>
       </c>
       <c r="I173" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J173" s="3">
         <v>1</v>
@@ -7828,7 +7828,7 @@
         <v>1.64</v>
       </c>
       <c r="I174" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J174" s="3">
         <v>2</v>
@@ -7870,7 +7870,7 @@
         <v>1.64</v>
       </c>
       <c r="I175" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J175" s="3">
         <v>3</v>
@@ -7912,7 +7912,7 @@
         <v>3.28</v>
       </c>
       <c r="I176" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J176" s="3">
         <v>1</v>
@@ -7954,7 +7954,7 @@
         <v>3.28</v>
       </c>
       <c r="I177" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J177" s="3">
         <v>2</v>
@@ -7996,7 +7996,7 @@
         <v>3.28</v>
       </c>
       <c r="I178" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J178" s="3">
         <v>3</v>
@@ -8038,7 +8038,7 @@
         <v>6.57</v>
       </c>
       <c r="I179" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J179" s="3">
         <v>1</v>
@@ -8080,7 +8080,7 @@
         <v>6.57</v>
       </c>
       <c r="I180" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J180" s="3">
         <v>2</v>
@@ -8122,7 +8122,7 @@
         <v>6.57</v>
       </c>
       <c r="I181" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J181" s="3">
         <v>3</v>
@@ -8164,7 +8164,7 @@
         <v>13.14</v>
       </c>
       <c r="I182" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J182" s="3">
         <v>1</v>
@@ -8206,7 +8206,7 @@
         <v>13.14</v>
       </c>
       <c r="I183" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J183" s="3">
         <v>2</v>
@@ -8248,7 +8248,7 @@
         <v>13.14</v>
       </c>
       <c r="I184" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J184" s="3">
         <v>3</v>
@@ -8290,7 +8290,7 @@
         <v>26.27</v>
       </c>
       <c r="I185" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J185" s="3">
         <v>1</v>
@@ -8332,7 +8332,7 @@
         <v>26.27</v>
       </c>
       <c r="I186" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J186" s="3">
         <v>2</v>
@@ -8374,7 +8374,7 @@
         <v>26.27</v>
       </c>
       <c r="I187" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J187" s="3">
         <v>3</v>
@@ -8416,7 +8416,7 @@
         <v>52.55</v>
       </c>
       <c r="I188" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J188" s="3">
         <v>1</v>
@@ -8458,7 +8458,7 @@
         <v>52.55</v>
       </c>
       <c r="I189" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J189" s="3">
         <v>2</v>
@@ -8500,7 +8500,7 @@
         <v>52.55</v>
       </c>
       <c r="I190" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J190" s="3">
         <v>3</v>
@@ -8542,7 +8542,7 @@
         <v>105.09</v>
       </c>
       <c r="I191" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J191" s="3">
         <v>1</v>
@@ -8584,7 +8584,7 @@
         <v>105.09</v>
       </c>
       <c r="I192" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J192" s="3">
         <v>2</v>
@@ -8626,7 +8626,7 @@
         <v>105.09</v>
       </c>
       <c r="I193" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J193" s="3">
         <v>3</v>
@@ -8668,7 +8668,7 @@
         <v>210.19</v>
       </c>
       <c r="I194" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J194" s="3">
         <v>1</v>
@@ -8710,7 +8710,7 @@
         <v>210.19</v>
       </c>
       <c r="I195" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J195" s="3">
         <v>2</v>
@@ -8752,7 +8752,7 @@
         <v>210.19</v>
       </c>
       <c r="I196" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J196" s="3">
         <v>3</v>
@@ -8794,7 +8794,7 @@
         <v>420.37</v>
       </c>
       <c r="I197" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J197" s="3">
         <v>1</v>
@@ -8836,7 +8836,7 @@
         <v>420.37</v>
       </c>
       <c r="I198" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J198" s="3">
         <v>2</v>
@@ -8878,7 +8878,7 @@
         <v>420.37</v>
       </c>
       <c r="I199" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J199" s="3">
         <v>3</v>
@@ -8920,7 +8920,7 @@
         <v>0</v>
       </c>
       <c r="I200" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J200" s="3">
         <v>1</v>
@@ -8962,7 +8962,7 @@
         <v>0</v>
       </c>
       <c r="I201" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J201" s="3">
         <v>2</v>
@@ -9004,7 +9004,7 @@
         <v>0</v>
       </c>
       <c r="I202" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J202" s="3">
         <v>3</v>
@@ -9046,7 +9046,7 @@
         <v>1.64</v>
       </c>
       <c r="I203" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J203" s="3">
         <v>1</v>
@@ -9088,7 +9088,7 @@
         <v>1.64</v>
       </c>
       <c r="I204" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J204" s="3">
         <v>2</v>
@@ -9130,7 +9130,7 @@
         <v>1.64</v>
       </c>
       <c r="I205" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J205" s="3">
         <v>3</v>
@@ -9172,7 +9172,7 @@
         <v>3.28</v>
       </c>
       <c r="I206" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J206" s="3">
         <v>1</v>
@@ -9214,7 +9214,7 @@
         <v>3.28</v>
       </c>
       <c r="I207" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J207" s="3">
         <v>2</v>
@@ -9256,7 +9256,7 @@
         <v>3.28</v>
       </c>
       <c r="I208" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J208" s="3">
         <v>3</v>
@@ -9298,7 +9298,7 @@
         <v>6.57</v>
       </c>
       <c r="I209" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J209" s="3">
         <v>1</v>
@@ -9340,7 +9340,7 @@
         <v>6.57</v>
       </c>
       <c r="I210" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J210" s="3">
         <v>2</v>
@@ -9382,7 +9382,7 @@
         <v>6.57</v>
       </c>
       <c r="I211" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J211" s="3">
         <v>3</v>
@@ -9424,7 +9424,7 @@
         <v>13.14</v>
       </c>
       <c r="I212" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J212" s="3">
         <v>1</v>
@@ -9466,7 +9466,7 @@
         <v>13.14</v>
       </c>
       <c r="I213" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J213" s="3">
         <v>2</v>
@@ -9508,7 +9508,7 @@
         <v>13.14</v>
       </c>
       <c r="I214" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J214" s="3">
         <v>3</v>
@@ -9550,7 +9550,7 @@
         <v>26.27</v>
       </c>
       <c r="I215" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J215" s="3">
         <v>1</v>
@@ -9592,7 +9592,7 @@
         <v>26.27</v>
       </c>
       <c r="I216" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J216" s="3">
         <v>2</v>
@@ -9634,7 +9634,7 @@
         <v>26.27</v>
       </c>
       <c r="I217" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J217" s="3">
         <v>3</v>
@@ -9676,7 +9676,7 @@
         <v>52.55</v>
       </c>
       <c r="I218" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J218" s="3">
         <v>1</v>
@@ -9718,7 +9718,7 @@
         <v>52.55</v>
       </c>
       <c r="I219" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J219" s="3">
         <v>2</v>
@@ -9760,7 +9760,7 @@
         <v>52.55</v>
       </c>
       <c r="I220" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J220" s="3">
         <v>3</v>
@@ -9802,7 +9802,7 @@
         <v>105.09</v>
       </c>
       <c r="I221" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J221" s="3">
         <v>1</v>
@@ -9844,7 +9844,7 @@
         <v>105.09</v>
       </c>
       <c r="I222" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J222" s="3">
         <v>2</v>
@@ -9886,7 +9886,7 @@
         <v>105.09</v>
       </c>
       <c r="I223" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J223" s="3">
         <v>3</v>
@@ -9928,7 +9928,7 @@
         <v>210.19</v>
       </c>
       <c r="I224" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J224" s="3">
         <v>1</v>
@@ -9970,7 +9970,7 @@
         <v>210.19</v>
       </c>
       <c r="I225" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J225" s="3">
         <v>2</v>
@@ -10012,7 +10012,7 @@
         <v>210.19</v>
       </c>
       <c r="I226" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J226" s="3">
         <v>3</v>
@@ -10054,7 +10054,7 @@
         <v>420.37</v>
       </c>
       <c r="I227" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J227" s="3">
         <v>1</v>
@@ -10096,7 +10096,7 @@
         <v>420.37</v>
       </c>
       <c r="I228" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J228" s="3">
         <v>2</v>
@@ -10138,7 +10138,7 @@
         <v>420.37</v>
       </c>
       <c r="I229" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J229" s="3">
         <v>3</v>
@@ -10180,7 +10180,7 @@
         <v>0</v>
       </c>
       <c r="I230" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J230" s="3">
         <v>1</v>
@@ -10222,7 +10222,7 @@
         <v>0</v>
       </c>
       <c r="I231" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J231" s="3">
         <v>2</v>
@@ -10264,7 +10264,7 @@
         <v>0</v>
       </c>
       <c r="I232" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J232" s="3">
         <v>3</v>
@@ -10306,7 +10306,7 @@
         <v>1.64</v>
       </c>
       <c r="I233" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J233" s="3">
         <v>1</v>
@@ -10348,7 +10348,7 @@
         <v>1.64</v>
       </c>
       <c r="I234" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J234" s="3">
         <v>2</v>
@@ -10390,7 +10390,7 @@
         <v>1.64</v>
       </c>
       <c r="I235" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J235" s="3">
         <v>3</v>
@@ -10432,7 +10432,7 @@
         <v>3.28</v>
       </c>
       <c r="I236" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J236" s="3">
         <v>1</v>
@@ -10474,7 +10474,7 @@
         <v>3.28</v>
       </c>
       <c r="I237" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J237" s="3">
         <v>2</v>
@@ -10516,7 +10516,7 @@
         <v>3.28</v>
       </c>
       <c r="I238" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J238" s="3">
         <v>3</v>
@@ -10558,7 +10558,7 @@
         <v>6.57</v>
       </c>
       <c r="I239" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J239" s="3">
         <v>1</v>
@@ -10600,7 +10600,7 @@
         <v>6.57</v>
       </c>
       <c r="I240" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J240" s="3">
         <v>2</v>
@@ -10642,7 +10642,7 @@
         <v>6.57</v>
       </c>
       <c r="I241" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J241" s="3">
         <v>3</v>
@@ -10684,7 +10684,7 @@
         <v>13.14</v>
       </c>
       <c r="I242" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J242" s="3">
         <v>1</v>
@@ -10726,7 +10726,7 @@
         <v>13.14</v>
       </c>
       <c r="I243" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J243" s="3">
         <v>2</v>
@@ -10768,7 +10768,7 @@
         <v>13.14</v>
       </c>
       <c r="I244" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J244" s="3">
         <v>3</v>
@@ -10810,7 +10810,7 @@
         <v>26.27</v>
       </c>
       <c r="I245" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J245" s="3">
         <v>1</v>
@@ -10852,7 +10852,7 @@
         <v>26.27</v>
       </c>
       <c r="I246" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J246" s="3">
         <v>2</v>
@@ -10894,7 +10894,7 @@
         <v>26.27</v>
       </c>
       <c r="I247" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J247" s="3">
         <v>3</v>
@@ -10936,7 +10936,7 @@
         <v>52.55</v>
       </c>
       <c r="I248" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J248" s="3">
         <v>1</v>
@@ -10978,7 +10978,7 @@
         <v>52.55</v>
       </c>
       <c r="I249" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J249" s="3">
         <v>2</v>
@@ -11020,7 +11020,7 @@
         <v>52.55</v>
       </c>
       <c r="I250" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J250" s="3">
         <v>3</v>
@@ -11062,7 +11062,7 @@
         <v>105.09</v>
       </c>
       <c r="I251" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J251" s="3">
         <v>1</v>
@@ -11104,7 +11104,7 @@
         <v>105.09</v>
       </c>
       <c r="I252" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J252" s="3">
         <v>2</v>
@@ -11146,7 +11146,7 @@
         <v>105.09</v>
       </c>
       <c r="I253" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J253" s="3">
         <v>3</v>
@@ -11188,7 +11188,7 @@
         <v>210.19</v>
       </c>
       <c r="I254" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J254" s="3">
         <v>1</v>
@@ -11230,7 +11230,7 @@
         <v>210.19</v>
       </c>
       <c r="I255" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J255" s="3">
         <v>2</v>
@@ -11272,7 +11272,7 @@
         <v>210.19</v>
       </c>
       <c r="I256" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J256" s="3">
         <v>3</v>
@@ -11314,7 +11314,7 @@
         <v>420.37</v>
       </c>
       <c r="I257" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J257" s="3">
         <v>1</v>
@@ -11356,7 +11356,7 @@
         <v>420.37</v>
       </c>
       <c r="I258" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J258" s="3">
         <v>2</v>
@@ -11398,7 +11398,7 @@
         <v>420.37</v>
       </c>
       <c r="I259" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J259" s="3">
         <v>3</v>
@@ -11431,7 +11431,7 @@
       </c>
       <c r="F260" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G260" s="3" t="s">
         <v>9</v>
@@ -11440,7 +11440,7 @@
         <v>0</v>
       </c>
       <c r="I260" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J260" s="3">
         <v>1</v>
@@ -11473,7 +11473,7 @@
       </c>
       <c r="F261" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G261" s="3" t="s">
         <v>9</v>
@@ -11482,7 +11482,7 @@
         <v>0</v>
       </c>
       <c r="I261" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J261" s="3">
         <v>2</v>
@@ -11515,7 +11515,7 @@
       </c>
       <c r="F262" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G262" s="3" t="s">
         <v>9</v>
@@ -11524,7 +11524,7 @@
         <v>0</v>
       </c>
       <c r="I262" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J262" s="3">
         <v>3</v>
@@ -11557,7 +11557,7 @@
       </c>
       <c r="F263" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G263" s="3" t="s">
         <v>9</v>
@@ -11566,7 +11566,7 @@
         <v>0</v>
       </c>
       <c r="I263" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J263" s="3">
         <v>4</v>
@@ -11599,7 +11599,7 @@
       </c>
       <c r="F264" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G264" s="3" t="s">
         <v>19</v>
@@ -11608,7 +11608,7 @@
         <v>1.64</v>
       </c>
       <c r="I264" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J264" s="3">
         <v>1</v>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="F265" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G265" s="3" t="s">
         <v>19</v>
@@ -11650,7 +11650,7 @@
         <v>1.64</v>
       </c>
       <c r="I265" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J265" s="3">
         <v>2</v>
@@ -11683,7 +11683,7 @@
       </c>
       <c r="F266" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G266" s="3" t="s">
         <v>19</v>
@@ -11692,7 +11692,7 @@
         <v>1.64</v>
       </c>
       <c r="I266" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J266" s="3">
         <v>3</v>
@@ -11725,7 +11725,7 @@
       </c>
       <c r="F267" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G267" s="3" t="s">
         <v>19</v>
@@ -11734,7 +11734,7 @@
         <v>1.64</v>
       </c>
       <c r="I267" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J267" s="3">
         <v>4</v>
@@ -11767,7 +11767,7 @@
       </c>
       <c r="F268" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G268" s="3" t="s">
         <v>20</v>
@@ -11776,7 +11776,7 @@
         <v>3.28</v>
       </c>
       <c r="I268" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J268" s="3">
         <v>1</v>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="F269" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G269" s="3" t="s">
         <v>20</v>
@@ -11818,7 +11818,7 @@
         <v>3.28</v>
       </c>
       <c r="I269" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J269" s="3">
         <v>2</v>
@@ -11851,7 +11851,7 @@
       </c>
       <c r="F270" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G270" s="3" t="s">
         <v>20</v>
@@ -11860,7 +11860,7 @@
         <v>3.28</v>
       </c>
       <c r="I270" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J270" s="3">
         <v>3</v>
@@ -11893,7 +11893,7 @@
       </c>
       <c r="F271" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G271" s="3" t="s">
         <v>20</v>
@@ -11902,7 +11902,7 @@
         <v>3.28</v>
       </c>
       <c r="I271" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J271" s="3">
         <v>4</v>
@@ -11935,7 +11935,7 @@
       </c>
       <c r="F272" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G272" s="3" t="s">
         <v>21</v>
@@ -11944,7 +11944,7 @@
         <v>6.57</v>
       </c>
       <c r="I272" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J272" s="3">
         <v>1</v>
@@ -11977,7 +11977,7 @@
       </c>
       <c r="F273" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G273" s="3" t="s">
         <v>21</v>
@@ -11986,7 +11986,7 @@
         <v>6.57</v>
       </c>
       <c r="I273" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J273" s="3">
         <v>2</v>
@@ -12019,7 +12019,7 @@
       </c>
       <c r="F274" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G274" s="3" t="s">
         <v>21</v>
@@ -12028,7 +12028,7 @@
         <v>6.57</v>
       </c>
       <c r="I274" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J274" s="3">
         <v>3</v>
@@ -12061,7 +12061,7 @@
       </c>
       <c r="F275" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G275" s="3" t="s">
         <v>21</v>
@@ -12070,7 +12070,7 @@
         <v>6.57</v>
       </c>
       <c r="I275" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J275" s="3">
         <v>4</v>
@@ -12103,7 +12103,7 @@
       </c>
       <c r="F276" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G276" s="3" t="s">
         <v>10</v>
@@ -12112,7 +12112,7 @@
         <v>13.14</v>
       </c>
       <c r="I276" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J276" s="3">
         <v>1</v>
@@ -12145,7 +12145,7 @@
       </c>
       <c r="F277" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G277" s="3" t="s">
         <v>10</v>
@@ -12154,7 +12154,7 @@
         <v>13.14</v>
       </c>
       <c r="I277" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J277" s="3">
         <v>2</v>
@@ -12187,7 +12187,7 @@
       </c>
       <c r="F278" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G278" s="3" t="s">
         <v>10</v>
@@ -12196,7 +12196,7 @@
         <v>13.14</v>
       </c>
       <c r="I278" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J278" s="3">
         <v>3</v>
@@ -12229,7 +12229,7 @@
       </c>
       <c r="F279" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G279" s="3" t="s">
         <v>10</v>
@@ -12238,7 +12238,7 @@
         <v>13.14</v>
       </c>
       <c r="I279" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J279" s="3">
         <v>4</v>
@@ -12271,7 +12271,7 @@
       </c>
       <c r="F280" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G280" s="3" t="s">
         <v>11</v>
@@ -12280,7 +12280,7 @@
         <v>26.27</v>
       </c>
       <c r="I280" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J280" s="3">
         <v>1</v>
@@ -12313,7 +12313,7 @@
       </c>
       <c r="F281" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G281" s="3" t="s">
         <v>11</v>
@@ -12322,7 +12322,7 @@
         <v>26.27</v>
       </c>
       <c r="I281" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J281" s="3">
         <v>2</v>
@@ -12355,7 +12355,7 @@
       </c>
       <c r="F282" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G282" s="3" t="s">
         <v>11</v>
@@ -12364,7 +12364,7 @@
         <v>26.27</v>
       </c>
       <c r="I282" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J282" s="3">
         <v>3</v>
@@ -12397,7 +12397,7 @@
       </c>
       <c r="F283" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G283" s="3" t="s">
         <v>11</v>
@@ -12406,7 +12406,7 @@
         <v>26.27</v>
       </c>
       <c r="I283" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J283" s="3">
         <v>4</v>
@@ -12439,7 +12439,7 @@
       </c>
       <c r="F284" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G284" s="3" t="s">
         <v>12</v>
@@ -12448,7 +12448,7 @@
         <v>52.55</v>
       </c>
       <c r="I284" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J284" s="3">
         <v>1</v>
@@ -12481,7 +12481,7 @@
       </c>
       <c r="F285" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G285" s="3" t="s">
         <v>12</v>
@@ -12490,7 +12490,7 @@
         <v>52.55</v>
       </c>
       <c r="I285" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J285" s="3">
         <v>2</v>
@@ -12523,7 +12523,7 @@
       </c>
       <c r="F286" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G286" s="3" t="s">
         <v>12</v>
@@ -12532,7 +12532,7 @@
         <v>52.55</v>
       </c>
       <c r="I286" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J286" s="3">
         <v>3</v>
@@ -12565,7 +12565,7 @@
       </c>
       <c r="F287" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G287" s="3" t="s">
         <v>12</v>
@@ -12574,7 +12574,7 @@
         <v>52.55</v>
       </c>
       <c r="I287" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J287" s="3">
         <v>4</v>
@@ -12607,7 +12607,7 @@
       </c>
       <c r="F288" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G288" s="3" t="s">
         <v>13</v>
@@ -12616,7 +12616,7 @@
         <v>105.09</v>
       </c>
       <c r="I288" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J288" s="3">
         <v>1</v>
@@ -12649,7 +12649,7 @@
       </c>
       <c r="F289" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G289" s="3" t="s">
         <v>13</v>
@@ -12658,7 +12658,7 @@
         <v>105.09</v>
       </c>
       <c r="I289" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J289" s="3">
         <v>2</v>
@@ -12691,7 +12691,7 @@
       </c>
       <c r="F290" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G290" s="3" t="s">
         <v>13</v>
@@ -12700,7 +12700,7 @@
         <v>105.09</v>
       </c>
       <c r="I290" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J290" s="3">
         <v>3</v>
@@ -12733,7 +12733,7 @@
       </c>
       <c r="F291" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G291" s="3" t="s">
         <v>13</v>
@@ -12742,7 +12742,7 @@
         <v>105.09</v>
       </c>
       <c r="I291" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J291" s="3">
         <v>4</v>
@@ -12775,7 +12775,7 @@
       </c>
       <c r="F292" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G292" s="3" t="s">
         <v>14</v>
@@ -12784,7 +12784,7 @@
         <v>210.19</v>
       </c>
       <c r="I292" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J292" s="3">
         <v>1</v>
@@ -12817,7 +12817,7 @@
       </c>
       <c r="F293" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G293" s="3" t="s">
         <v>14</v>
@@ -12826,7 +12826,7 @@
         <v>210.19</v>
       </c>
       <c r="I293" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J293" s="3">
         <v>2</v>
@@ -12859,7 +12859,7 @@
       </c>
       <c r="F294" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G294" s="3" t="s">
         <v>14</v>
@@ -12868,7 +12868,7 @@
         <v>210.19</v>
       </c>
       <c r="I294" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J294" s="3">
         <v>3</v>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="F295" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G295" s="3" t="s">
         <v>14</v>
@@ -12910,7 +12910,7 @@
         <v>210.19</v>
       </c>
       <c r="I295" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J295" s="3">
         <v>4</v>
@@ -12943,7 +12943,7 @@
       </c>
       <c r="F296" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G296" s="3" t="s">
         <v>15</v>
@@ -12952,7 +12952,7 @@
         <v>420.37</v>
       </c>
       <c r="I296" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J296" s="3">
         <v>1</v>
@@ -12985,7 +12985,7 @@
       </c>
       <c r="F297" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G297" s="3" t="s">
         <v>15</v>
@@ -12994,7 +12994,7 @@
         <v>420.37</v>
       </c>
       <c r="I297" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J297" s="3">
         <v>2</v>
@@ -13027,7 +13027,7 @@
       </c>
       <c r="F298" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G298" s="3" t="s">
         <v>15</v>
@@ -13036,7 +13036,7 @@
         <v>420.37</v>
       </c>
       <c r="I298" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J298" s="3">
         <v>3</v>
@@ -13069,7 +13069,7 @@
       </c>
       <c r="F299" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>A82+meso+elevated</v>
+        <v>A82+meso+increased</v>
       </c>
       <c r="G299" s="3" t="s">
         <v>15</v>
@@ -13078,7 +13078,7 @@
         <v>420.37</v>
       </c>
       <c r="I299" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J299" s="3">
         <v>4</v>
@@ -13120,7 +13120,7 @@
         <v>0</v>
       </c>
       <c r="I300" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J300" s="3">
         <v>1</v>
@@ -13162,7 +13162,7 @@
         <v>0</v>
       </c>
       <c r="I301" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J301" s="3">
         <v>2</v>
@@ -13204,7 +13204,7 @@
         <v>0</v>
       </c>
       <c r="I302" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J302" s="3">
         <v>3</v>
@@ -13246,7 +13246,7 @@
         <v>0</v>
       </c>
       <c r="I303" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J303" s="3">
         <v>4</v>
@@ -13288,7 +13288,7 @@
         <v>1.64</v>
       </c>
       <c r="I304" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J304" s="3">
         <v>1</v>
@@ -13330,7 +13330,7 @@
         <v>1.64</v>
       </c>
       <c r="I305" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J305" s="3">
         <v>2</v>
@@ -13372,7 +13372,7 @@
         <v>1.64</v>
       </c>
       <c r="I306" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J306" s="3">
         <v>3</v>
@@ -13414,7 +13414,7 @@
         <v>1.64</v>
       </c>
       <c r="I307" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J307" s="3">
         <v>4</v>
@@ -13456,7 +13456,7 @@
         <v>3.28</v>
       </c>
       <c r="I308" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J308" s="3">
         <v>1</v>
@@ -13498,7 +13498,7 @@
         <v>3.28</v>
       </c>
       <c r="I309" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J309" s="3">
         <v>2</v>
@@ -13540,7 +13540,7 @@
         <v>3.28</v>
       </c>
       <c r="I310" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J310" s="3">
         <v>3</v>
@@ -13582,7 +13582,7 @@
         <v>3.28</v>
       </c>
       <c r="I311" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J311" s="3">
         <v>4</v>
@@ -13624,7 +13624,7 @@
         <v>6.57</v>
       </c>
       <c r="I312" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J312" s="3">
         <v>1</v>
@@ -13666,7 +13666,7 @@
         <v>6.57</v>
       </c>
       <c r="I313" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J313" s="3">
         <v>2</v>
@@ -13708,7 +13708,7 @@
         <v>6.57</v>
       </c>
       <c r="I314" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J314" s="3">
         <v>3</v>
@@ -13750,7 +13750,7 @@
         <v>6.57</v>
       </c>
       <c r="I315" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J315" s="3">
         <v>4</v>
@@ -13792,7 +13792,7 @@
         <v>13.14</v>
       </c>
       <c r="I316" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J316" s="3">
         <v>1</v>
@@ -13834,7 +13834,7 @@
         <v>13.14</v>
       </c>
       <c r="I317" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J317" s="3">
         <v>2</v>
@@ -13876,7 +13876,7 @@
         <v>13.14</v>
       </c>
       <c r="I318" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J318" s="3">
         <v>3</v>
@@ -13918,7 +13918,7 @@
         <v>13.14</v>
       </c>
       <c r="I319" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J319" s="3">
         <v>4</v>
@@ -13960,7 +13960,7 @@
         <v>26.27</v>
       </c>
       <c r="I320" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J320" s="3">
         <v>1</v>
@@ -14002,7 +14002,7 @@
         <v>26.27</v>
       </c>
       <c r="I321" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J321" s="3">
         <v>2</v>
@@ -14044,7 +14044,7 @@
         <v>26.27</v>
       </c>
       <c r="I322" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J322" s="3">
         <v>3</v>
@@ -14086,7 +14086,7 @@
         <v>26.27</v>
       </c>
       <c r="I323" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J323" s="3">
         <v>4</v>
@@ -14128,7 +14128,7 @@
         <v>52.55</v>
       </c>
       <c r="I324" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J324" s="3">
         <v>1</v>
@@ -14170,7 +14170,7 @@
         <v>52.55</v>
       </c>
       <c r="I325" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J325" s="3">
         <v>2</v>
@@ -14212,7 +14212,7 @@
         <v>52.55</v>
       </c>
       <c r="I326" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J326" s="3">
         <v>3</v>
@@ -14254,7 +14254,7 @@
         <v>52.55</v>
       </c>
       <c r="I327" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J327" s="3">
         <v>4</v>
@@ -14296,7 +14296,7 @@
         <v>105.09</v>
       </c>
       <c r="I328" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J328" s="3">
         <v>1</v>
@@ -14338,7 +14338,7 @@
         <v>105.09</v>
       </c>
       <c r="I329" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J329" s="3">
         <v>2</v>
@@ -14380,7 +14380,7 @@
         <v>105.09</v>
       </c>
       <c r="I330" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J330" s="3">
         <v>3</v>
@@ -14422,7 +14422,7 @@
         <v>105.09</v>
       </c>
       <c r="I331" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J331" s="3">
         <v>4</v>
@@ -14464,7 +14464,7 @@
         <v>210.19</v>
       </c>
       <c r="I332" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J332" s="3">
         <v>1</v>
@@ -14506,7 +14506,7 @@
         <v>210.19</v>
       </c>
       <c r="I333" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J333" s="3">
         <v>2</v>
@@ -14548,7 +14548,7 @@
         <v>210.19</v>
       </c>
       <c r="I334" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J334" s="3">
         <v>3</v>
@@ -14590,7 +14590,7 @@
         <v>210.19</v>
       </c>
       <c r="I335" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J335" s="3">
         <v>4</v>
@@ -14632,7 +14632,7 @@
         <v>420.37</v>
       </c>
       <c r="I336" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J336" s="3">
         <v>1</v>
@@ -14674,7 +14674,7 @@
         <v>420.37</v>
       </c>
       <c r="I337" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J337" s="3">
         <v>2</v>
@@ -14716,7 +14716,7 @@
         <v>420.37</v>
       </c>
       <c r="I338" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J338" s="3">
         <v>3</v>
@@ -14758,7 +14758,7 @@
         <v>420.37</v>
       </c>
       <c r="I339" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J339" s="3">
         <v>4</v>
@@ -14791,7 +14791,7 @@
       </c>
       <c r="F340" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G340" s="3" t="s">
         <v>9</v>
@@ -14800,7 +14800,7 @@
         <v>0</v>
       </c>
       <c r="I340" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J340" s="3">
         <v>1</v>
@@ -14833,7 +14833,7 @@
       </c>
       <c r="F341" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G341" s="3" t="s">
         <v>9</v>
@@ -14842,7 +14842,7 @@
         <v>0</v>
       </c>
       <c r="I341" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J341" s="3">
         <v>2</v>
@@ -14869,7 +14869,7 @@
       </c>
       <c r="F342" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G342" s="3" t="s">
         <v>9</v>
@@ -14878,7 +14878,7 @@
         <v>0</v>
       </c>
       <c r="I342" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J342" s="3">
         <v>3</v>
@@ -14911,7 +14911,7 @@
       </c>
       <c r="F343" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G343" s="3" t="s">
         <v>9</v>
@@ -14920,7 +14920,7 @@
         <v>0</v>
       </c>
       <c r="I343" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J343" s="3">
         <v>4</v>
@@ -14953,7 +14953,7 @@
       </c>
       <c r="F344" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G344" s="3" t="s">
         <v>19</v>
@@ -14962,7 +14962,7 @@
         <v>1.64</v>
       </c>
       <c r="I344" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J344" s="3">
         <v>1</v>
@@ -14995,7 +14995,7 @@
       </c>
       <c r="F345" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G345" s="3" t="s">
         <v>19</v>
@@ -15004,7 +15004,7 @@
         <v>1.64</v>
       </c>
       <c r="I345" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J345" s="3">
         <v>2</v>
@@ -15037,7 +15037,7 @@
       </c>
       <c r="F346" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G346" s="3" t="s">
         <v>19</v>
@@ -15046,7 +15046,7 @@
         <v>1.64</v>
       </c>
       <c r="I346" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J346" s="3">
         <v>3</v>
@@ -15079,7 +15079,7 @@
       </c>
       <c r="F347" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G347" s="3" t="s">
         <v>19</v>
@@ -15088,7 +15088,7 @@
         <v>1.64</v>
       </c>
       <c r="I347" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J347" s="3">
         <v>4</v>
@@ -15121,7 +15121,7 @@
       </c>
       <c r="F348" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G348" s="3" t="s">
         <v>20</v>
@@ -15130,7 +15130,7 @@
         <v>3.28</v>
       </c>
       <c r="I348" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J348" s="3">
         <v>1</v>
@@ -15163,7 +15163,7 @@
       </c>
       <c r="F349" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G349" s="3" t="s">
         <v>20</v>
@@ -15172,7 +15172,7 @@
         <v>3.28</v>
       </c>
       <c r="I349" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J349" s="3">
         <v>2</v>
@@ -15205,7 +15205,7 @@
       </c>
       <c r="F350" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G350" s="3" t="s">
         <v>20</v>
@@ -15214,7 +15214,7 @@
         <v>3.28</v>
       </c>
       <c r="I350" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J350" s="3">
         <v>3</v>
@@ -15247,7 +15247,7 @@
       </c>
       <c r="F351" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G351" s="3" t="s">
         <v>20</v>
@@ -15256,7 +15256,7 @@
         <v>3.28</v>
       </c>
       <c r="I351" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J351" s="3">
         <v>4</v>
@@ -15289,7 +15289,7 @@
       </c>
       <c r="F352" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G352" s="3" t="s">
         <v>21</v>
@@ -15298,7 +15298,7 @@
         <v>6.57</v>
       </c>
       <c r="I352" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J352" s="3">
         <v>1</v>
@@ -15331,7 +15331,7 @@
       </c>
       <c r="F353" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G353" s="3" t="s">
         <v>21</v>
@@ -15340,7 +15340,7 @@
         <v>6.57</v>
       </c>
       <c r="I353" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J353" s="3">
         <v>2</v>
@@ -15373,7 +15373,7 @@
       </c>
       <c r="F354" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G354" s="3" t="s">
         <v>21</v>
@@ -15382,7 +15382,7 @@
         <v>6.57</v>
       </c>
       <c r="I354" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J354" s="3">
         <v>3</v>
@@ -15415,7 +15415,7 @@
       </c>
       <c r="F355" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G355" s="3" t="s">
         <v>21</v>
@@ -15424,7 +15424,7 @@
         <v>6.57</v>
       </c>
       <c r="I355" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J355" s="3">
         <v>4</v>
@@ -15457,7 +15457,7 @@
       </c>
       <c r="F356" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G356" s="3" t="s">
         <v>10</v>
@@ -15466,7 +15466,7 @@
         <v>13.14</v>
       </c>
       <c r="I356" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J356" s="3">
         <v>1</v>
@@ -15499,7 +15499,7 @@
       </c>
       <c r="F357" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G357" s="3" t="s">
         <v>10</v>
@@ -15508,7 +15508,7 @@
         <v>13.14</v>
       </c>
       <c r="I357" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J357" s="3">
         <v>2</v>
@@ -15541,7 +15541,7 @@
       </c>
       <c r="F358" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G358" s="3" t="s">
         <v>10</v>
@@ -15550,7 +15550,7 @@
         <v>13.14</v>
       </c>
       <c r="I358" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J358" s="3">
         <v>3</v>
@@ -15583,7 +15583,7 @@
       </c>
       <c r="F359" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G359" s="3" t="s">
         <v>10</v>
@@ -15592,7 +15592,7 @@
         <v>13.14</v>
       </c>
       <c r="I359" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J359" s="3">
         <v>4</v>
@@ -15625,7 +15625,7 @@
       </c>
       <c r="F360" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G360" s="3" t="s">
         <v>11</v>
@@ -15634,7 +15634,7 @@
         <v>26.27</v>
       </c>
       <c r="I360" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J360" s="3">
         <v>1</v>
@@ -15667,7 +15667,7 @@
       </c>
       <c r="F361" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G361" s="3" t="s">
         <v>11</v>
@@ -15676,7 +15676,7 @@
         <v>26.27</v>
       </c>
       <c r="I361" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J361" s="3">
         <v>2</v>
@@ -15709,7 +15709,7 @@
       </c>
       <c r="F362" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G362" s="3" t="s">
         <v>11</v>
@@ -15718,7 +15718,7 @@
         <v>26.27</v>
       </c>
       <c r="I362" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J362" s="3">
         <v>3</v>
@@ -15751,7 +15751,7 @@
       </c>
       <c r="F363" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G363" s="3" t="s">
         <v>11</v>
@@ -15760,7 +15760,7 @@
         <v>26.27</v>
       </c>
       <c r="I363" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J363" s="3">
         <v>4</v>
@@ -15793,7 +15793,7 @@
       </c>
       <c r="F364" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G364" s="3" t="s">
         <v>12</v>
@@ -15802,7 +15802,7 @@
         <v>52.55</v>
       </c>
       <c r="I364" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J364" s="3">
         <v>1</v>
@@ -15835,7 +15835,7 @@
       </c>
       <c r="F365" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G365" s="3" t="s">
         <v>12</v>
@@ -15844,7 +15844,7 @@
         <v>52.55</v>
       </c>
       <c r="I365" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J365" s="3">
         <v>2</v>
@@ -15877,7 +15877,7 @@
       </c>
       <c r="F366" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G366" s="3" t="s">
         <v>12</v>
@@ -15886,7 +15886,7 @@
         <v>52.55</v>
       </c>
       <c r="I366" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J366" s="3">
         <v>3</v>
@@ -15919,7 +15919,7 @@
       </c>
       <c r="F367" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G367" s="3" t="s">
         <v>12</v>
@@ -15928,7 +15928,7 @@
         <v>52.55</v>
       </c>
       <c r="I367" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J367" s="3">
         <v>4</v>
@@ -15961,7 +15961,7 @@
       </c>
       <c r="F368" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G368" s="3" t="s">
         <v>13</v>
@@ -15970,7 +15970,7 @@
         <v>105.09</v>
       </c>
       <c r="I368" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J368" s="3">
         <v>1</v>
@@ -16003,7 +16003,7 @@
       </c>
       <c r="F369" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G369" s="3" t="s">
         <v>13</v>
@@ -16012,7 +16012,7 @@
         <v>105.09</v>
       </c>
       <c r="I369" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J369" s="3">
         <v>2</v>
@@ -16045,7 +16045,7 @@
       </c>
       <c r="F370" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G370" s="3" t="s">
         <v>13</v>
@@ -16054,7 +16054,7 @@
         <v>105.09</v>
       </c>
       <c r="I370" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J370" s="3">
         <v>3</v>
@@ -16087,7 +16087,7 @@
       </c>
       <c r="F371" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G371" s="3" t="s">
         <v>13</v>
@@ -16096,7 +16096,7 @@
         <v>105.09</v>
       </c>
       <c r="I371" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J371" s="3">
         <v>4</v>
@@ -16129,7 +16129,7 @@
       </c>
       <c r="F372" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G372" s="3" t="s">
         <v>14</v>
@@ -16138,7 +16138,7 @@
         <v>210.19</v>
       </c>
       <c r="I372" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J372" s="3">
         <v>1</v>
@@ -16171,7 +16171,7 @@
       </c>
       <c r="F373" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G373" s="3" t="s">
         <v>14</v>
@@ -16180,7 +16180,7 @@
         <v>210.19</v>
       </c>
       <c r="I373" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J373" s="3">
         <v>2</v>
@@ -16213,7 +16213,7 @@
       </c>
       <c r="F374" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G374" s="3" t="s">
         <v>14</v>
@@ -16222,7 +16222,7 @@
         <v>210.19</v>
       </c>
       <c r="I374" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J374" s="3">
         <v>3</v>
@@ -16255,7 +16255,7 @@
       </c>
       <c r="F375" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G375" s="3" t="s">
         <v>14</v>
@@ -16264,7 +16264,7 @@
         <v>210.19</v>
       </c>
       <c r="I375" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J375" s="3">
         <v>4</v>
@@ -16297,7 +16297,7 @@
       </c>
       <c r="F376" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G376" s="3" t="s">
         <v>15</v>
@@ -16306,7 +16306,7 @@
         <v>420.37</v>
       </c>
       <c r="I376" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J376" s="3">
         <v>1</v>
@@ -16339,7 +16339,7 @@
       </c>
       <c r="F377" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G377" s="3" t="s">
         <v>15</v>
@@ -16348,7 +16348,7 @@
         <v>420.37</v>
       </c>
       <c r="I377" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J377" s="3">
         <v>2</v>
@@ -16381,7 +16381,7 @@
       </c>
       <c r="F378" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G378" s="3" t="s">
         <v>15</v>
@@ -16390,7 +16390,7 @@
         <v>420.37</v>
       </c>
       <c r="I378" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J378" s="3">
         <v>3</v>
@@ -16423,7 +16423,7 @@
       </c>
       <c r="F379" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A101+meso+elevated</v>
+        <v>A101+meso+increased</v>
       </c>
       <c r="G379" s="3" t="s">
         <v>15</v>
@@ -16432,7 +16432,7 @@
         <v>420.37</v>
       </c>
       <c r="I379" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J379" s="3">
         <v>4</v>
@@ -16465,7 +16465,7 @@
       </c>
       <c r="F380" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G380" s="3" t="s">
         <v>9</v>
@@ -16474,7 +16474,7 @@
         <v>0</v>
       </c>
       <c r="I380" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J380" s="3">
         <v>1</v>
@@ -16507,7 +16507,7 @@
       </c>
       <c r="F381" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G381" s="3" t="s">
         <v>9</v>
@@ -16516,7 +16516,7 @@
         <v>0</v>
       </c>
       <c r="I381" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J381" s="3">
         <v>2</v>
@@ -16549,7 +16549,7 @@
       </c>
       <c r="F382" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G382" s="3" t="s">
         <v>9</v>
@@ -16558,7 +16558,7 @@
         <v>0</v>
       </c>
       <c r="I382" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J382" s="3">
         <v>3</v>
@@ -16591,7 +16591,7 @@
       </c>
       <c r="F383" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G383" s="3" t="s">
         <v>9</v>
@@ -16600,7 +16600,7 @@
         <v>0</v>
       </c>
       <c r="I383" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J383" s="3">
         <v>4</v>
@@ -16633,7 +16633,7 @@
       </c>
       <c r="F384" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G384" s="3" t="s">
         <v>19</v>
@@ -16642,7 +16642,7 @@
         <v>1.64</v>
       </c>
       <c r="I384" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J384" s="3">
         <v>1</v>
@@ -16675,7 +16675,7 @@
       </c>
       <c r="F385" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G385" s="3" t="s">
         <v>19</v>
@@ -16684,7 +16684,7 @@
         <v>1.64</v>
       </c>
       <c r="I385" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J385" s="3">
         <v>2</v>
@@ -16717,7 +16717,7 @@
       </c>
       <c r="F386" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G386" s="3" t="s">
         <v>19</v>
@@ -16726,7 +16726,7 @@
         <v>1.64</v>
       </c>
       <c r="I386" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J386" s="3">
         <v>3</v>
@@ -16759,7 +16759,7 @@
       </c>
       <c r="F387" s="3" t="str">
         <f t="shared" ref="F387:F450" si="6">_xlfn.CONCAT(D387, "+", E387, "+", I387)</f>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G387" s="3" t="s">
         <v>19</v>
@@ -16768,7 +16768,7 @@
         <v>1.64</v>
       </c>
       <c r="I387" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J387" s="3">
         <v>4</v>
@@ -16801,7 +16801,7 @@
       </c>
       <c r="F388" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G388" s="3" t="s">
         <v>20</v>
@@ -16810,7 +16810,7 @@
         <v>3.28</v>
       </c>
       <c r="I388" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J388" s="3">
         <v>1</v>
@@ -16843,7 +16843,7 @@
       </c>
       <c r="F389" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G389" s="3" t="s">
         <v>20</v>
@@ -16852,7 +16852,7 @@
         <v>3.28</v>
       </c>
       <c r="I389" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J389" s="3">
         <v>2</v>
@@ -16885,7 +16885,7 @@
       </c>
       <c r="F390" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G390" s="3" t="s">
         <v>20</v>
@@ -16894,7 +16894,7 @@
         <v>3.28</v>
       </c>
       <c r="I390" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J390" s="3">
         <v>3</v>
@@ -16927,7 +16927,7 @@
       </c>
       <c r="F391" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G391" s="3" t="s">
         <v>20</v>
@@ -16936,7 +16936,7 @@
         <v>3.28</v>
       </c>
       <c r="I391" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J391" s="3">
         <v>4</v>
@@ -16969,7 +16969,7 @@
       </c>
       <c r="F392" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G392" s="3" t="s">
         <v>21</v>
@@ -16978,7 +16978,7 @@
         <v>6.57</v>
       </c>
       <c r="I392" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J392" s="3">
         <v>1</v>
@@ -17011,7 +17011,7 @@
       </c>
       <c r="F393" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G393" s="3" t="s">
         <v>21</v>
@@ -17020,7 +17020,7 @@
         <v>6.57</v>
       </c>
       <c r="I393" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J393" s="3">
         <v>2</v>
@@ -17053,7 +17053,7 @@
       </c>
       <c r="F394" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G394" s="3" t="s">
         <v>21</v>
@@ -17062,7 +17062,7 @@
         <v>6.57</v>
       </c>
       <c r="I394" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J394" s="3">
         <v>3</v>
@@ -17095,7 +17095,7 @@
       </c>
       <c r="F395" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G395" s="3" t="s">
         <v>21</v>
@@ -17104,7 +17104,7 @@
         <v>6.57</v>
       </c>
       <c r="I395" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J395" s="3">
         <v>4</v>
@@ -17137,7 +17137,7 @@
       </c>
       <c r="F396" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G396" s="3" t="s">
         <v>10</v>
@@ -17146,7 +17146,7 @@
         <v>13.14</v>
       </c>
       <c r="I396" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J396" s="3">
         <v>1</v>
@@ -17179,7 +17179,7 @@
       </c>
       <c r="F397" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G397" s="3" t="s">
         <v>10</v>
@@ -17188,7 +17188,7 @@
         <v>13.14</v>
       </c>
       <c r="I397" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J397" s="3">
         <v>2</v>
@@ -17221,7 +17221,7 @@
       </c>
       <c r="F398" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G398" s="3" t="s">
         <v>10</v>
@@ -17230,7 +17230,7 @@
         <v>13.14</v>
       </c>
       <c r="I398" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J398" s="3">
         <v>3</v>
@@ -17263,7 +17263,7 @@
       </c>
       <c r="F399" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G399" s="3" t="s">
         <v>10</v>
@@ -17272,7 +17272,7 @@
         <v>13.14</v>
       </c>
       <c r="I399" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J399" s="3">
         <v>4</v>
@@ -17305,7 +17305,7 @@
       </c>
       <c r="F400" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G400" s="3" t="s">
         <v>11</v>
@@ -17314,7 +17314,7 @@
         <v>26.27</v>
       </c>
       <c r="I400" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J400" s="3">
         <v>1</v>
@@ -17347,7 +17347,7 @@
       </c>
       <c r="F401" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G401" s="3" t="s">
         <v>11</v>
@@ -17356,7 +17356,7 @@
         <v>26.27</v>
       </c>
       <c r="I401" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J401" s="3">
         <v>2</v>
@@ -17389,7 +17389,7 @@
       </c>
       <c r="F402" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G402" s="3" t="s">
         <v>11</v>
@@ -17398,7 +17398,7 @@
         <v>26.27</v>
       </c>
       <c r="I402" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J402" s="3">
         <v>3</v>
@@ -17431,7 +17431,7 @@
       </c>
       <c r="F403" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G403" s="3" t="s">
         <v>11</v>
@@ -17440,7 +17440,7 @@
         <v>26.27</v>
       </c>
       <c r="I403" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J403" s="3">
         <v>4</v>
@@ -17473,7 +17473,7 @@
       </c>
       <c r="F404" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G404" s="3" t="s">
         <v>12</v>
@@ -17482,7 +17482,7 @@
         <v>52.55</v>
       </c>
       <c r="I404" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J404" s="3">
         <v>1</v>
@@ -17515,7 +17515,7 @@
       </c>
       <c r="F405" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G405" s="3" t="s">
         <v>12</v>
@@ -17524,7 +17524,7 @@
         <v>52.55</v>
       </c>
       <c r="I405" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J405" s="3">
         <v>2</v>
@@ -17557,7 +17557,7 @@
       </c>
       <c r="F406" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G406" s="3" t="s">
         <v>12</v>
@@ -17566,7 +17566,7 @@
         <v>52.55</v>
       </c>
       <c r="I406" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J406" s="3">
         <v>3</v>
@@ -17599,7 +17599,7 @@
       </c>
       <c r="F407" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G407" s="3" t="s">
         <v>12</v>
@@ -17608,7 +17608,7 @@
         <v>52.55</v>
       </c>
       <c r="I407" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J407" s="3">
         <v>4</v>
@@ -17641,7 +17641,7 @@
       </c>
       <c r="F408" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G408" s="3" t="s">
         <v>13</v>
@@ -17650,7 +17650,7 @@
         <v>105.09</v>
       </c>
       <c r="I408" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J408" s="3">
         <v>1</v>
@@ -17683,7 +17683,7 @@
       </c>
       <c r="F409" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G409" s="3" t="s">
         <v>13</v>
@@ -17692,7 +17692,7 @@
         <v>105.09</v>
       </c>
       <c r="I409" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J409" s="3">
         <v>2</v>
@@ -17725,7 +17725,7 @@
       </c>
       <c r="F410" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G410" s="3" t="s">
         <v>13</v>
@@ -17734,7 +17734,7 @@
         <v>105.09</v>
       </c>
       <c r="I410" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J410" s="3">
         <v>3</v>
@@ -17767,7 +17767,7 @@
       </c>
       <c r="F411" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G411" s="3" t="s">
         <v>13</v>
@@ -17776,7 +17776,7 @@
         <v>105.09</v>
       </c>
       <c r="I411" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J411" s="3">
         <v>4</v>
@@ -17809,7 +17809,7 @@
       </c>
       <c r="F412" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G412" s="3" t="s">
         <v>14</v>
@@ -17818,7 +17818,7 @@
         <v>210.19</v>
       </c>
       <c r="I412" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J412" s="3">
         <v>1</v>
@@ -17851,7 +17851,7 @@
       </c>
       <c r="F413" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G413" s="3" t="s">
         <v>14</v>
@@ -17860,7 +17860,7 @@
         <v>210.19</v>
       </c>
       <c r="I413" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J413" s="3">
         <v>2</v>
@@ -17893,7 +17893,7 @@
       </c>
       <c r="F414" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G414" s="3" t="s">
         <v>14</v>
@@ -17902,7 +17902,7 @@
         <v>210.19</v>
       </c>
       <c r="I414" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J414" s="3">
         <v>3</v>
@@ -17935,7 +17935,7 @@
       </c>
       <c r="F415" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G415" s="3" t="s">
         <v>14</v>
@@ -17944,7 +17944,7 @@
         <v>210.19</v>
       </c>
       <c r="I415" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J415" s="3">
         <v>4</v>
@@ -17977,7 +17977,7 @@
       </c>
       <c r="F416" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G416" s="3" t="s">
         <v>15</v>
@@ -17986,7 +17986,7 @@
         <v>420.37</v>
       </c>
       <c r="I416" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J416" s="3">
         <v>1</v>
@@ -18019,7 +18019,7 @@
       </c>
       <c r="F417" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G417" s="3" t="s">
         <v>15</v>
@@ -18028,7 +18028,7 @@
         <v>420.37</v>
       </c>
       <c r="I417" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J417" s="3">
         <v>2</v>
@@ -18061,7 +18061,7 @@
       </c>
       <c r="F418" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G418" s="3" t="s">
         <v>15</v>
@@ -18070,7 +18070,7 @@
         <v>420.37</v>
       </c>
       <c r="I418" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J418" s="3">
         <v>3</v>
@@ -18103,7 +18103,7 @@
       </c>
       <c r="F419" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+P450+elevated</v>
+        <v>A101+meso+P450+increased</v>
       </c>
       <c r="G419" s="3" t="s">
         <v>15</v>
@@ -18112,7 +18112,7 @@
         <v>420.37</v>
       </c>
       <c r="I419" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J419" s="3">
         <v>4</v>
@@ -18145,7 +18145,7 @@
       </c>
       <c r="F420" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G420" s="3" t="s">
         <v>9</v>
@@ -18154,7 +18154,7 @@
         <v>0</v>
       </c>
       <c r="I420" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J420" s="3">
         <v>1</v>
@@ -18187,7 +18187,7 @@
       </c>
       <c r="F421" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G421" s="3" t="s">
         <v>9</v>
@@ -18196,7 +18196,7 @@
         <v>0</v>
       </c>
       <c r="I421" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J421" s="3">
         <v>2</v>
@@ -18229,7 +18229,7 @@
       </c>
       <c r="F422" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G422" s="3" t="s">
         <v>9</v>
@@ -18238,7 +18238,7 @@
         <v>0</v>
       </c>
       <c r="I422" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J422" s="3">
         <v>3</v>
@@ -18271,7 +18271,7 @@
       </c>
       <c r="F423" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G423" s="3" t="s">
         <v>9</v>
@@ -18280,7 +18280,7 @@
         <v>0</v>
       </c>
       <c r="I423" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J423" s="3">
         <v>4</v>
@@ -18313,7 +18313,7 @@
       </c>
       <c r="F424" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G424" s="3" t="s">
         <v>19</v>
@@ -18322,7 +18322,7 @@
         <v>1.64</v>
       </c>
       <c r="I424" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J424" s="3">
         <v>1</v>
@@ -18355,7 +18355,7 @@
       </c>
       <c r="F425" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G425" s="3" t="s">
         <v>19</v>
@@ -18364,7 +18364,7 @@
         <v>1.64</v>
       </c>
       <c r="I425" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J425" s="3">
         <v>2</v>
@@ -18397,7 +18397,7 @@
       </c>
       <c r="F426" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G426" s="3" t="s">
         <v>19</v>
@@ -18406,7 +18406,7 @@
         <v>1.64</v>
       </c>
       <c r="I426" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J426" s="3">
         <v>3</v>
@@ -18439,7 +18439,7 @@
       </c>
       <c r="F427" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G427" s="3" t="s">
         <v>19</v>
@@ -18448,7 +18448,7 @@
         <v>1.64</v>
       </c>
       <c r="I427" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J427" s="3">
         <v>4</v>
@@ -18481,7 +18481,7 @@
       </c>
       <c r="F428" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G428" s="3" t="s">
         <v>20</v>
@@ -18490,7 +18490,7 @@
         <v>3.28</v>
       </c>
       <c r="I428" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J428" s="3">
         <v>1</v>
@@ -18523,7 +18523,7 @@
       </c>
       <c r="F429" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G429" s="3" t="s">
         <v>20</v>
@@ -18532,7 +18532,7 @@
         <v>3.28</v>
       </c>
       <c r="I429" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J429" s="3">
         <v>2</v>
@@ -18565,7 +18565,7 @@
       </c>
       <c r="F430" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G430" s="3" t="s">
         <v>20</v>
@@ -18574,7 +18574,7 @@
         <v>3.28</v>
       </c>
       <c r="I430" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J430" s="3">
         <v>3</v>
@@ -18607,7 +18607,7 @@
       </c>
       <c r="F431" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G431" s="3" t="s">
         <v>20</v>
@@ -18616,7 +18616,7 @@
         <v>3.28</v>
       </c>
       <c r="I431" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J431" s="3">
         <v>4</v>
@@ -18649,7 +18649,7 @@
       </c>
       <c r="F432" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G432" s="3" t="s">
         <v>21</v>
@@ -18658,7 +18658,7 @@
         <v>6.57</v>
       </c>
       <c r="I432" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J432" s="3">
         <v>1</v>
@@ -18691,7 +18691,7 @@
       </c>
       <c r="F433" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G433" s="3" t="s">
         <v>21</v>
@@ -18700,7 +18700,7 @@
         <v>6.57</v>
       </c>
       <c r="I433" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J433" s="3">
         <v>2</v>
@@ -18733,7 +18733,7 @@
       </c>
       <c r="F434" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G434" s="3" t="s">
         <v>21</v>
@@ -18742,7 +18742,7 @@
         <v>6.57</v>
       </c>
       <c r="I434" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J434" s="3">
         <v>3</v>
@@ -18775,7 +18775,7 @@
       </c>
       <c r="F435" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G435" s="3" t="s">
         <v>21</v>
@@ -18784,7 +18784,7 @@
         <v>6.57</v>
       </c>
       <c r="I435" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J435" s="3">
         <v>4</v>
@@ -18817,7 +18817,7 @@
       </c>
       <c r="F436" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G436" s="3" t="s">
         <v>10</v>
@@ -18826,7 +18826,7 @@
         <v>13.14</v>
       </c>
       <c r="I436" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J436" s="3">
         <v>1</v>
@@ -18859,7 +18859,7 @@
       </c>
       <c r="F437" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G437" s="3" t="s">
         <v>10</v>
@@ -18868,7 +18868,7 @@
         <v>13.14</v>
       </c>
       <c r="I437" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J437" s="3">
         <v>2</v>
@@ -18901,7 +18901,7 @@
       </c>
       <c r="F438" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G438" s="3" t="s">
         <v>10</v>
@@ -18910,7 +18910,7 @@
         <v>13.14</v>
       </c>
       <c r="I438" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J438" s="3">
         <v>3</v>
@@ -18943,7 +18943,7 @@
       </c>
       <c r="F439" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G439" s="3" t="s">
         <v>10</v>
@@ -18952,7 +18952,7 @@
         <v>13.14</v>
       </c>
       <c r="I439" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J439" s="3">
         <v>4</v>
@@ -18985,7 +18985,7 @@
       </c>
       <c r="F440" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G440" s="3" t="s">
         <v>11</v>
@@ -18994,7 +18994,7 @@
         <v>26.27</v>
       </c>
       <c r="I440" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J440" s="3">
         <v>1</v>
@@ -19027,7 +19027,7 @@
       </c>
       <c r="F441" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G441" s="3" t="s">
         <v>11</v>
@@ -19036,7 +19036,7 @@
         <v>26.27</v>
       </c>
       <c r="I441" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J441" s="3">
         <v>2</v>
@@ -19069,7 +19069,7 @@
       </c>
       <c r="F442" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G442" s="3" t="s">
         <v>11</v>
@@ -19078,7 +19078,7 @@
         <v>26.27</v>
       </c>
       <c r="I442" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J442" s="3">
         <v>3</v>
@@ -19111,7 +19111,7 @@
       </c>
       <c r="F443" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G443" s="3" t="s">
         <v>11</v>
@@ -19120,7 +19120,7 @@
         <v>26.27</v>
       </c>
       <c r="I443" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J443" s="3">
         <v>4</v>
@@ -19153,7 +19153,7 @@
       </c>
       <c r="F444" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G444" s="3" t="s">
         <v>12</v>
@@ -19162,7 +19162,7 @@
         <v>52.55</v>
       </c>
       <c r="I444" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J444" s="3">
         <v>1</v>
@@ -19195,7 +19195,7 @@
       </c>
       <c r="F445" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G445" s="3" t="s">
         <v>12</v>
@@ -19204,7 +19204,7 @@
         <v>52.55</v>
       </c>
       <c r="I445" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J445" s="3">
         <v>2</v>
@@ -19237,7 +19237,7 @@
       </c>
       <c r="F446" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G446" s="3" t="s">
         <v>12</v>
@@ -19246,7 +19246,7 @@
         <v>52.55</v>
       </c>
       <c r="I446" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J446" s="3">
         <v>3</v>
@@ -19279,7 +19279,7 @@
       </c>
       <c r="F447" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G447" s="3" t="s">
         <v>12</v>
@@ -19288,7 +19288,7 @@
         <v>52.55</v>
       </c>
       <c r="I447" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J447" s="3">
         <v>4</v>
@@ -19321,7 +19321,7 @@
       </c>
       <c r="F448" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G448" s="3" t="s">
         <v>13</v>
@@ -19330,7 +19330,7 @@
         <v>105.09</v>
       </c>
       <c r="I448" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J448" s="3">
         <v>1</v>
@@ -19363,7 +19363,7 @@
       </c>
       <c r="F449" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G449" s="3" t="s">
         <v>13</v>
@@ -19372,7 +19372,7 @@
         <v>105.09</v>
       </c>
       <c r="I449" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J449" s="3">
         <v>2</v>
@@ -19405,7 +19405,7 @@
       </c>
       <c r="F450" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G450" s="3" t="s">
         <v>13</v>
@@ -19414,7 +19414,7 @@
         <v>105.09</v>
       </c>
       <c r="I450" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J450" s="3">
         <v>3</v>
@@ -19447,7 +19447,7 @@
       </c>
       <c r="F451" s="3" t="str">
         <f t="shared" ref="F451:F514" si="7">_xlfn.CONCAT(D451, "+", E451, "+", I451)</f>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G451" s="3" t="s">
         <v>13</v>
@@ -19456,7 +19456,7 @@
         <v>105.09</v>
       </c>
       <c r="I451" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J451" s="3">
         <v>4</v>
@@ -19489,7 +19489,7 @@
       </c>
       <c r="F452" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G452" s="3" t="s">
         <v>14</v>
@@ -19498,7 +19498,7 @@
         <v>210.19</v>
       </c>
       <c r="I452" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J452" s="3">
         <v>1</v>
@@ -19531,7 +19531,7 @@
       </c>
       <c r="F453" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G453" s="3" t="s">
         <v>14</v>
@@ -19540,7 +19540,7 @@
         <v>210.19</v>
       </c>
       <c r="I453" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J453" s="3">
         <v>2</v>
@@ -19573,7 +19573,7 @@
       </c>
       <c r="F454" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G454" s="3" t="s">
         <v>14</v>
@@ -19582,7 +19582,7 @@
         <v>210.19</v>
       </c>
       <c r="I454" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J454" s="3">
         <v>3</v>
@@ -19615,7 +19615,7 @@
       </c>
       <c r="F455" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G455" s="3" t="s">
         <v>14</v>
@@ -19624,7 +19624,7 @@
         <v>210.19</v>
       </c>
       <c r="I455" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J455" s="3">
         <v>4</v>
@@ -19657,7 +19657,7 @@
       </c>
       <c r="F456" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G456" s="3" t="s">
         <v>15</v>
@@ -19666,7 +19666,7 @@
         <v>420.37</v>
       </c>
       <c r="I456" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J456" s="3">
         <v>1</v>
@@ -19699,7 +19699,7 @@
       </c>
       <c r="F457" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G457" s="3" t="s">
         <v>15</v>
@@ -19708,7 +19708,7 @@
         <v>420.37</v>
       </c>
       <c r="I457" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J457" s="3">
         <v>2</v>
@@ -19741,7 +19741,7 @@
       </c>
       <c r="F458" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G458" s="3" t="s">
         <v>15</v>
@@ -19750,7 +19750,7 @@
         <v>420.37</v>
       </c>
       <c r="I458" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J458" s="3">
         <v>3</v>
@@ -19783,7 +19783,7 @@
       </c>
       <c r="F459" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+meso+GST+elevated</v>
+        <v>A101+meso+GST+increased</v>
       </c>
       <c r="G459" s="3" t="s">
         <v>15</v>
@@ -19792,7 +19792,7 @@
         <v>420.37</v>
       </c>
       <c r="I459" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J459" s="3">
         <v>4</v>
@@ -19834,7 +19834,7 @@
         <v>0</v>
       </c>
       <c r="I460" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J460" s="3">
         <v>1</v>
@@ -19876,7 +19876,7 @@
         <v>0</v>
       </c>
       <c r="I461" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J461" s="3">
         <v>2</v>
@@ -19918,7 +19918,7 @@
         <v>0</v>
       </c>
       <c r="I462" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J462" s="3">
         <v>3</v>
@@ -19960,7 +19960,7 @@
         <v>0</v>
       </c>
       <c r="I463" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J463" s="3">
         <v>4</v>
@@ -20002,7 +20002,7 @@
         <v>1.64</v>
       </c>
       <c r="I464" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J464" s="3">
         <v>1</v>
@@ -20044,7 +20044,7 @@
         <v>1.64</v>
       </c>
       <c r="I465" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J465" s="3">
         <v>2</v>
@@ -20086,7 +20086,7 @@
         <v>1.64</v>
       </c>
       <c r="I466" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J466" s="3">
         <v>3</v>
@@ -20128,7 +20128,7 @@
         <v>1.64</v>
       </c>
       <c r="I467" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J467" s="3">
         <v>4</v>
@@ -20170,7 +20170,7 @@
         <v>3.28</v>
       </c>
       <c r="I468" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J468" s="3">
         <v>1</v>
@@ -20212,7 +20212,7 @@
         <v>3.28</v>
       </c>
       <c r="I469" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J469" s="3">
         <v>2</v>
@@ -20254,7 +20254,7 @@
         <v>3.28</v>
       </c>
       <c r="I470" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J470" s="3">
         <v>3</v>
@@ -20296,7 +20296,7 @@
         <v>3.28</v>
       </c>
       <c r="I471" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J471" s="3">
         <v>4</v>
@@ -20338,7 +20338,7 @@
         <v>6.57</v>
       </c>
       <c r="I472" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J472" s="3">
         <v>1</v>
@@ -20380,7 +20380,7 @@
         <v>6.57</v>
       </c>
       <c r="I473" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J473" s="3">
         <v>2</v>
@@ -20422,7 +20422,7 @@
         <v>6.57</v>
       </c>
       <c r="I474" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J474" s="3">
         <v>3</v>
@@ -20464,7 +20464,7 @@
         <v>6.57</v>
       </c>
       <c r="I475" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J475" s="3">
         <v>4</v>
@@ -20506,7 +20506,7 @@
         <v>13.14</v>
       </c>
       <c r="I476" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J476" s="3">
         <v>1</v>
@@ -20548,7 +20548,7 @@
         <v>13.14</v>
       </c>
       <c r="I477" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J477" s="3">
         <v>2</v>
@@ -20590,7 +20590,7 @@
         <v>13.14</v>
       </c>
       <c r="I478" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J478" s="3">
         <v>3</v>
@@ -20632,7 +20632,7 @@
         <v>13.14</v>
       </c>
       <c r="I479" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J479" s="3">
         <v>4</v>
@@ -20674,7 +20674,7 @@
         <v>26.27</v>
       </c>
       <c r="I480" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J480" s="3">
         <v>1</v>
@@ -20716,7 +20716,7 @@
         <v>26.27</v>
       </c>
       <c r="I481" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J481" s="3">
         <v>2</v>
@@ -20758,7 +20758,7 @@
         <v>26.27</v>
       </c>
       <c r="I482" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J482" s="3">
         <v>3</v>
@@ -20800,7 +20800,7 @@
         <v>26.27</v>
       </c>
       <c r="I483" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J483" s="3">
         <v>4</v>
@@ -20842,7 +20842,7 @@
         <v>52.55</v>
       </c>
       <c r="I484" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J484" s="3">
         <v>1</v>
@@ -20884,7 +20884,7 @@
         <v>52.55</v>
       </c>
       <c r="I485" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J485" s="3">
         <v>2</v>
@@ -20926,7 +20926,7 @@
         <v>52.55</v>
       </c>
       <c r="I486" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J486" s="3">
         <v>3</v>
@@ -20968,7 +20968,7 @@
         <v>52.55</v>
       </c>
       <c r="I487" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J487" s="3">
         <v>4</v>
@@ -21010,7 +21010,7 @@
         <v>105.09</v>
       </c>
       <c r="I488" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J488" s="3">
         <v>1</v>
@@ -21052,7 +21052,7 @@
         <v>105.09</v>
       </c>
       <c r="I489" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J489" s="3">
         <v>2</v>
@@ -21094,7 +21094,7 @@
         <v>105.09</v>
       </c>
       <c r="I490" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J490" s="3">
         <v>3</v>
@@ -21136,7 +21136,7 @@
         <v>105.09</v>
       </c>
       <c r="I491" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J491" s="3">
         <v>4</v>
@@ -21178,7 +21178,7 @@
         <v>210.19</v>
       </c>
       <c r="I492" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J492" s="3">
         <v>1</v>
@@ -21220,7 +21220,7 @@
         <v>210.19</v>
       </c>
       <c r="I493" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J493" s="3">
         <v>2</v>
@@ -21262,7 +21262,7 @@
         <v>210.19</v>
       </c>
       <c r="I494" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J494" s="3">
         <v>3</v>
@@ -21304,7 +21304,7 @@
         <v>210.19</v>
       </c>
       <c r="I495" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J495" s="3">
         <v>4</v>
@@ -21346,7 +21346,7 @@
         <v>420.37</v>
       </c>
       <c r="I496" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J496" s="3">
         <v>1</v>
@@ -21388,7 +21388,7 @@
         <v>420.37</v>
       </c>
       <c r="I497" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J497" s="3">
         <v>2</v>
@@ -21430,7 +21430,7 @@
         <v>420.37</v>
       </c>
       <c r="I498" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J498" s="3">
         <v>3</v>
@@ -21472,7 +21472,7 @@
         <v>420.37</v>
       </c>
       <c r="I499" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J499" s="3">
         <v>4</v>
@@ -21514,7 +21514,7 @@
         <v>0</v>
       </c>
       <c r="I500" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J500" s="3">
         <v>1</v>
@@ -21556,7 +21556,7 @@
         <v>0</v>
       </c>
       <c r="I501" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J501" s="3">
         <v>2</v>
@@ -21598,7 +21598,7 @@
         <v>0</v>
       </c>
       <c r="I502" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J502" s="3">
         <v>3</v>
@@ -21640,7 +21640,7 @@
         <v>0</v>
       </c>
       <c r="I503" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J503" s="3">
         <v>4</v>
@@ -21682,7 +21682,7 @@
         <v>1.64</v>
       </c>
       <c r="I504" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J504" s="3">
         <v>1</v>
@@ -21724,7 +21724,7 @@
         <v>1.64</v>
       </c>
       <c r="I505" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J505" s="3">
         <v>2</v>
@@ -21766,7 +21766,7 @@
         <v>1.64</v>
       </c>
       <c r="I506" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J506" s="3">
         <v>3</v>
@@ -21808,7 +21808,7 @@
         <v>1.64</v>
       </c>
       <c r="I507" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J507" s="3">
         <v>4</v>
@@ -21850,7 +21850,7 @@
         <v>3.28</v>
       </c>
       <c r="I508" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J508" s="3">
         <v>1</v>
@@ -21892,7 +21892,7 @@
         <v>3.28</v>
       </c>
       <c r="I509" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J509" s="3">
         <v>2</v>
@@ -21934,7 +21934,7 @@
         <v>3.28</v>
       </c>
       <c r="I510" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J510" s="3">
         <v>3</v>
@@ -21976,7 +21976,7 @@
         <v>3.28</v>
       </c>
       <c r="I511" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J511" s="3">
         <v>4</v>
@@ -22018,7 +22018,7 @@
         <v>6.57</v>
       </c>
       <c r="I512" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J512" s="3">
         <v>1</v>
@@ -22060,7 +22060,7 @@
         <v>6.57</v>
       </c>
       <c r="I513" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J513" s="3">
         <v>2</v>
@@ -22102,7 +22102,7 @@
         <v>6.57</v>
       </c>
       <c r="I514" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J514" s="3">
         <v>3</v>
@@ -22144,7 +22144,7 @@
         <v>6.57</v>
       </c>
       <c r="I515" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J515" s="3">
         <v>4</v>
@@ -22186,7 +22186,7 @@
         <v>13.14</v>
       </c>
       <c r="I516" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J516" s="3">
         <v>1</v>
@@ -22228,7 +22228,7 @@
         <v>13.14</v>
       </c>
       <c r="I517" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J517" s="3">
         <v>2</v>
@@ -22270,7 +22270,7 @@
         <v>13.14</v>
       </c>
       <c r="I518" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J518" s="3">
         <v>3</v>
@@ -22312,7 +22312,7 @@
         <v>13.14</v>
       </c>
       <c r="I519" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J519" s="3">
         <v>4</v>
@@ -22354,7 +22354,7 @@
         <v>26.27</v>
       </c>
       <c r="I520" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J520" s="3">
         <v>1</v>
@@ -22396,7 +22396,7 @@
         <v>26.27</v>
       </c>
       <c r="I521" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J521" s="3">
         <v>2</v>
@@ -22438,7 +22438,7 @@
         <v>26.27</v>
       </c>
       <c r="I522" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J522" s="3">
         <v>3</v>
@@ -22480,7 +22480,7 @@
         <v>26.27</v>
       </c>
       <c r="I523" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J523" s="3">
         <v>4</v>
@@ -22522,7 +22522,7 @@
         <v>52.55</v>
       </c>
       <c r="I524" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J524" s="3">
         <v>1</v>
@@ -22564,7 +22564,7 @@
         <v>52.55</v>
       </c>
       <c r="I525" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J525" s="3">
         <v>2</v>
@@ -22606,7 +22606,7 @@
         <v>52.55</v>
       </c>
       <c r="I526" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J526" s="3">
         <v>3</v>
@@ -22648,7 +22648,7 @@
         <v>52.55</v>
       </c>
       <c r="I527" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J527" s="3">
         <v>4</v>
@@ -22690,7 +22690,7 @@
         <v>105.09</v>
       </c>
       <c r="I528" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J528" s="3">
         <v>1</v>
@@ -22732,7 +22732,7 @@
         <v>105.09</v>
       </c>
       <c r="I529" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J529" s="3">
         <v>2</v>
@@ -22774,7 +22774,7 @@
         <v>105.09</v>
       </c>
       <c r="I530" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J530" s="3">
         <v>3</v>
@@ -22816,7 +22816,7 @@
         <v>105.09</v>
       </c>
       <c r="I531" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J531" s="3">
         <v>4</v>
@@ -22858,7 +22858,7 @@
         <v>210.19</v>
       </c>
       <c r="I532" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J532" s="3">
         <v>1</v>
@@ -22900,7 +22900,7 @@
         <v>210.19</v>
       </c>
       <c r="I533" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J533" s="3">
         <v>2</v>
@@ -22942,7 +22942,7 @@
         <v>210.19</v>
       </c>
       <c r="I534" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J534" s="3">
         <v>3</v>
@@ -22984,7 +22984,7 @@
         <v>210.19</v>
       </c>
       <c r="I535" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J535" s="3">
         <v>4</v>
@@ -23026,7 +23026,7 @@
         <v>420.37</v>
       </c>
       <c r="I536" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J536" s="3">
         <v>1</v>
@@ -23068,7 +23068,7 @@
         <v>420.37</v>
       </c>
       <c r="I537" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J537" s="3">
         <v>2</v>
@@ -23110,7 +23110,7 @@
         <v>420.37</v>
       </c>
       <c r="I538" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J538" s="3">
         <v>3</v>
@@ -23152,7 +23152,7 @@
         <v>420.37</v>
       </c>
       <c r="I539" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J539" s="3">
         <v>4</v>
@@ -23194,7 +23194,7 @@
         <v>0</v>
       </c>
       <c r="I540" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J540" s="3">
         <v>1</v>
@@ -23236,7 +23236,7 @@
         <v>0</v>
       </c>
       <c r="I541" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J541" s="3">
         <v>2</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I542" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J542" s="3">
         <v>3</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="I543" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J543" s="3">
         <v>4</v>
@@ -23362,7 +23362,7 @@
         <v>1.64</v>
       </c>
       <c r="I544" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J544" s="3">
         <v>1</v>
@@ -23404,7 +23404,7 @@
         <v>1.64</v>
       </c>
       <c r="I545" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J545" s="3">
         <v>2</v>
@@ -23446,7 +23446,7 @@
         <v>1.64</v>
       </c>
       <c r="I546" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J546" s="3">
         <v>3</v>
@@ -23488,7 +23488,7 @@
         <v>1.64</v>
       </c>
       <c r="I547" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J547" s="3">
         <v>4</v>
@@ -23530,7 +23530,7 @@
         <v>3.28</v>
       </c>
       <c r="I548" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J548" s="3">
         <v>1</v>
@@ -23572,7 +23572,7 @@
         <v>3.28</v>
       </c>
       <c r="I549" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J549" s="3">
         <v>2</v>
@@ -23614,7 +23614,7 @@
         <v>3.28</v>
       </c>
       <c r="I550" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J550" s="3">
         <v>3</v>
@@ -23656,7 +23656,7 @@
         <v>3.28</v>
       </c>
       <c r="I551" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J551" s="3">
         <v>4</v>
@@ -23698,7 +23698,7 @@
         <v>6.57</v>
       </c>
       <c r="I552" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J552" s="3">
         <v>1</v>
@@ -23740,7 +23740,7 @@
         <v>6.57</v>
       </c>
       <c r="I553" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J553" s="3">
         <v>2</v>
@@ -23782,7 +23782,7 @@
         <v>6.57</v>
       </c>
       <c r="I554" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J554" s="3">
         <v>3</v>
@@ -23824,7 +23824,7 @@
         <v>6.57</v>
       </c>
       <c r="I555" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J555" s="3">
         <v>4</v>
@@ -23866,7 +23866,7 @@
         <v>13.14</v>
       </c>
       <c r="I556" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J556" s="3">
         <v>1</v>
@@ -23908,7 +23908,7 @@
         <v>13.14</v>
       </c>
       <c r="I557" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J557" s="3">
         <v>2</v>
@@ -23950,7 +23950,7 @@
         <v>13.14</v>
       </c>
       <c r="I558" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J558" s="3">
         <v>3</v>
@@ -23992,7 +23992,7 @@
         <v>13.14</v>
       </c>
       <c r="I559" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J559" s="3">
         <v>4</v>
@@ -24034,7 +24034,7 @@
         <v>26.27</v>
       </c>
       <c r="I560" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J560" s="3">
         <v>1</v>
@@ -24076,7 +24076,7 @@
         <v>26.27</v>
       </c>
       <c r="I561" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J561" s="3">
         <v>2</v>
@@ -24118,7 +24118,7 @@
         <v>26.27</v>
       </c>
       <c r="I562" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J562" s="3">
         <v>3</v>
@@ -24160,7 +24160,7 @@
         <v>26.27</v>
       </c>
       <c r="I563" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J563" s="3">
         <v>4</v>
@@ -24202,7 +24202,7 @@
         <v>52.55</v>
       </c>
       <c r="I564" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J564" s="3">
         <v>1</v>
@@ -24244,7 +24244,7 @@
         <v>52.55</v>
       </c>
       <c r="I565" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J565" s="3">
         <v>2</v>
@@ -24286,7 +24286,7 @@
         <v>52.55</v>
       </c>
       <c r="I566" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J566" s="3">
         <v>3</v>
@@ -24328,7 +24328,7 @@
         <v>52.55</v>
       </c>
       <c r="I567" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J567" s="3">
         <v>4</v>
@@ -24370,7 +24370,7 @@
         <v>105.09</v>
       </c>
       <c r="I568" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J568" s="3">
         <v>1</v>
@@ -24412,7 +24412,7 @@
         <v>105.09</v>
       </c>
       <c r="I569" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J569" s="3">
         <v>2</v>
@@ -24454,7 +24454,7 @@
         <v>105.09</v>
       </c>
       <c r="I570" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J570" s="3">
         <v>3</v>
@@ -24496,7 +24496,7 @@
         <v>105.09</v>
       </c>
       <c r="I571" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J571" s="3">
         <v>4</v>
@@ -24538,7 +24538,7 @@
         <v>210.19</v>
       </c>
       <c r="I572" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J572" s="3">
         <v>1</v>
@@ -24580,7 +24580,7 @@
         <v>210.19</v>
       </c>
       <c r="I573" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J573" s="3">
         <v>2</v>
@@ -24622,7 +24622,7 @@
         <v>210.19</v>
       </c>
       <c r="I574" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J574" s="3">
         <v>3</v>
@@ -24664,7 +24664,7 @@
         <v>210.19</v>
       </c>
       <c r="I575" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J575" s="3">
         <v>4</v>
@@ -24706,7 +24706,7 @@
         <v>420.37</v>
       </c>
       <c r="I576" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J576" s="3">
         <v>1</v>
@@ -24748,7 +24748,7 @@
         <v>420.37</v>
       </c>
       <c r="I577" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J577" s="3">
         <v>2</v>
@@ -24790,7 +24790,7 @@
         <v>420.37</v>
       </c>
       <c r="I578" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J578" s="3">
         <v>3</v>
@@ -24832,7 +24832,7 @@
         <v>420.37</v>
       </c>
       <c r="I579" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J579" s="3">
         <v>4</v>
